--- a/Maestro_MUN_COM_PROV.xlsx
+++ b/Maestro_MUN_COM_PROV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joana.APCE\Dropbox\Dades\APP Dades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ESTUDIS\APP\Conjuntura-sector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AD1FD8-41A4-47E7-B169-5CF403E9277A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74EF2A3-5B67-46E9-890F-6F6F98073DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{768499FD-7CAC-4631-BFC2-A464066D4BA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{768499FD-7CAC-4631-BFC2-A464066D4BA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Maestro" sheetId="1" r:id="rId1"/>
@@ -5904,12 +5904,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6231,8 +6230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A135BF-3070-49BE-ABC9-48E5736ED01C}">
   <dimension ref="A1:E948"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="E180" sqref="E180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6268,7 +6267,7 @@
         <f>VLOOKUP(C2,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6286,7 +6285,7 @@
         <f>VLOOKUP(C3,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -6304,7 +6303,7 @@
         <f>VLOOKUP(C4,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6322,7 +6321,7 @@
         <f>VLOOKUP(C5,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -6340,7 +6339,7 @@
         <f>VLOOKUP(C6,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6358,7 +6357,7 @@
         <f>VLOOKUP(C7,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6376,7 +6375,7 @@
         <f>VLOOKUP(C8,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6394,7 +6393,7 @@
         <f>VLOOKUP(C9,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6412,7 +6411,7 @@
         <f>VLOOKUP(C10,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6430,7 +6429,7 @@
         <f>VLOOKUP(C11,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6448,7 +6447,7 @@
         <f>VLOOKUP(C12,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6466,7 +6465,7 @@
         <f>VLOOKUP(C13,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6484,7 +6483,7 @@
         <f>VLOOKUP(C14,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6502,7 +6501,7 @@
         <f>VLOOKUP(C15,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6520,7 +6519,7 @@
         <f>VLOOKUP(C16,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6538,7 +6537,7 @@
         <f>VLOOKUP(C17,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6556,7 +6555,7 @@
         <f>VLOOKUP(C18,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6574,7 +6573,7 @@
         <f>VLOOKUP(C19,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6592,7 +6591,7 @@
         <f>VLOOKUP(C20,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6610,7 +6609,7 @@
         <f>VLOOKUP(C21,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6628,7 +6627,7 @@
         <f>VLOOKUP(C22,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -6646,7 +6645,7 @@
         <f>VLOOKUP(C23,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6664,7 +6663,7 @@
         <f>VLOOKUP(C24,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -6682,7 +6681,7 @@
         <f>VLOOKUP(C25,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6700,7 +6699,7 @@
         <f>VLOOKUP(C26,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -6718,7 +6717,7 @@
         <f>VLOOKUP(C27,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6736,7 +6735,7 @@
         <f>VLOOKUP(C28,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6754,7 +6753,7 @@
         <f>VLOOKUP(C29,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6772,7 +6771,7 @@
         <f>VLOOKUP(C30,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -6790,7 +6789,7 @@
         <f>VLOOKUP(C31,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6808,7 +6807,7 @@
         <f>VLOOKUP(C32,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6826,7 +6825,7 @@
         <f>VLOOKUP(C33,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6844,7 +6843,7 @@
         <f>VLOOKUP(C34,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6862,7 +6861,7 @@
         <f>VLOOKUP(C35,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6880,7 +6879,7 @@
         <f>VLOOKUP(C36,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6898,7 +6897,7 @@
         <f>VLOOKUP(C37,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6916,7 +6915,7 @@
         <f>VLOOKUP(C38,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6934,7 +6933,7 @@
         <f>VLOOKUP(C39,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -6952,7 +6951,7 @@
         <f>VLOOKUP(C40,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6970,7 +6969,7 @@
         <f>VLOOKUP(C41,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -6988,7 +6987,7 @@
         <f>VLOOKUP(C42,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7006,7 +7005,7 @@
         <f>VLOOKUP(C43,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7024,7 +7023,7 @@
         <f>VLOOKUP(C44,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7042,7 +7041,7 @@
         <f>VLOOKUP(C45,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7060,7 +7059,7 @@
         <f>VLOOKUP(C46,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -7078,7 +7077,7 @@
         <f>VLOOKUP(C47,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7096,7 +7095,7 @@
         <f>VLOOKUP(C48,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -7114,7 +7113,7 @@
         <f>VLOOKUP(C49,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7132,7 +7131,7 @@
         <f>VLOOKUP(C50,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -7150,7 +7149,7 @@
         <f>VLOOKUP(C51,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -7168,7 +7167,7 @@
         <f>VLOOKUP(C52,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7186,7 +7185,7 @@
         <f>VLOOKUP(C53,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -7204,7 +7203,7 @@
         <f>VLOOKUP(C54,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -7222,7 +7221,7 @@
         <f>VLOOKUP(C55,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7240,7 +7239,7 @@
         <f>VLOOKUP(C56,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7258,7 +7257,7 @@
         <f>VLOOKUP(C57,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -7276,7 +7275,7 @@
         <f>VLOOKUP(C58,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7294,7 +7293,7 @@
         <f>VLOOKUP(C59,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -7312,7 +7311,7 @@
         <f>VLOOKUP(C60,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -7330,7 +7329,7 @@
         <f>VLOOKUP(C61,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -7348,7 +7347,7 @@
         <f>VLOOKUP(C62,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7366,7 +7365,7 @@
         <f>VLOOKUP(C63,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7384,7 +7383,7 @@
         <f>VLOOKUP(C64,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7402,7 +7401,7 @@
         <f>VLOOKUP(C65,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -7420,7 +7419,7 @@
         <f>VLOOKUP(C66,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7438,7 +7437,7 @@
         <f>VLOOKUP(C67,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7456,7 +7455,7 @@
         <f>VLOOKUP(C68,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7474,7 +7473,7 @@
         <f>VLOOKUP(C69,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7492,7 +7491,7 @@
         <f>VLOOKUP(C70,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -7510,7 +7509,7 @@
         <f>VLOOKUP(C71,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7528,7 +7527,7 @@
         <f>VLOOKUP(C72,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7546,7 +7545,7 @@
         <f>VLOOKUP(C73,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7564,7 +7563,7 @@
         <f>VLOOKUP(C74,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7582,7 +7581,7 @@
         <f>VLOOKUP(C75,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7600,7 +7599,7 @@
         <f>VLOOKUP(C76,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7618,7 +7617,7 @@
         <f>VLOOKUP(C77,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7636,7 +7635,7 @@
         <f>VLOOKUP(C78,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7654,7 +7653,7 @@
         <f>VLOOKUP(C79,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7672,7 +7671,7 @@
         <f>VLOOKUP(C80,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -7690,7 +7689,7 @@
         <f>VLOOKUP(C81,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -7708,7 +7707,7 @@
         <f>VLOOKUP(C82,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7726,7 +7725,7 @@
         <f>VLOOKUP(C83,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7744,7 +7743,7 @@
         <f>VLOOKUP(C84,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -7762,7 +7761,7 @@
         <f>VLOOKUP(C85,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7780,7 +7779,7 @@
         <f>VLOOKUP(C86,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7798,7 +7797,7 @@
         <f>VLOOKUP(C87,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7816,7 +7815,7 @@
         <f>VLOOKUP(C88,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -7834,7 +7833,7 @@
         <f>VLOOKUP(C89,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7852,7 +7851,7 @@
         <f>VLOOKUP(C90,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7870,7 +7869,7 @@
         <f>VLOOKUP(C91,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -7888,7 +7887,7 @@
         <f>VLOOKUP(C92,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -7906,7 +7905,7 @@
         <f>VLOOKUP(C93,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7924,7 +7923,7 @@
         <f>VLOOKUP(C94,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7942,7 +7941,7 @@
         <f>VLOOKUP(C95,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7960,7 +7959,7 @@
         <f>VLOOKUP(C96,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7978,7 +7977,7 @@
         <f>VLOOKUP(C97,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -7996,7 +7995,7 @@
         <f>VLOOKUP(C98,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -8014,7 +8013,7 @@
         <f>VLOOKUP(C99,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8032,7 +8031,7 @@
         <f>VLOOKUP(C100,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8050,7 +8049,7 @@
         <f>VLOOKUP(C101,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8068,7 +8067,7 @@
         <f>VLOOKUP(C102,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8086,7 +8085,7 @@
         <f>VLOOKUP(C103,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8104,7 +8103,7 @@
         <f>VLOOKUP(C104,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8122,7 +8121,7 @@
         <f>VLOOKUP(C105,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8140,7 +8139,7 @@
         <f>VLOOKUP(C106,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8158,7 +8157,7 @@
         <f>VLOOKUP(C107,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8176,7 +8175,7 @@
         <f>VLOOKUP(C108,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -8194,7 +8193,7 @@
         <f>VLOOKUP(C109,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8212,7 +8211,7 @@
         <f>VLOOKUP(C110,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8230,7 +8229,7 @@
         <f>VLOOKUP(C111,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8248,7 +8247,7 @@
         <f>VLOOKUP(C112,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8266,7 +8265,7 @@
         <f>VLOOKUP(C113,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8284,7 +8283,7 @@
         <f>VLOOKUP(C114,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8302,7 +8301,7 @@
         <f>VLOOKUP(C115,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -8320,7 +8319,7 @@
         <f>VLOOKUP(C116,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8338,7 +8337,7 @@
         <f>VLOOKUP(C117,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -8356,7 +8355,7 @@
         <f>VLOOKUP(C118,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8374,7 +8373,7 @@
         <f>VLOOKUP(C119,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -8392,7 +8391,7 @@
         <f>VLOOKUP(C120,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8410,7 +8409,7 @@
         <f>VLOOKUP(C121,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8428,7 +8427,7 @@
         <f>VLOOKUP(C122,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8446,7 +8445,7 @@
         <f>VLOOKUP(C123,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -8464,7 +8463,7 @@
         <f>VLOOKUP(C124,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8482,7 +8481,7 @@
         <f>VLOOKUP(C125,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8500,7 +8499,7 @@
         <f>VLOOKUP(C126,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -8518,7 +8517,7 @@
         <f>VLOOKUP(C127,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8536,7 +8535,7 @@
         <f>VLOOKUP(C128,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8554,7 +8553,7 @@
         <f>VLOOKUP(C129,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8572,7 +8571,7 @@
         <f>VLOOKUP(C130,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8590,7 +8589,7 @@
         <f>VLOOKUP(C131,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8608,7 +8607,7 @@
         <f>VLOOKUP(C132,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E132" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -8626,7 +8625,7 @@
         <f>VLOOKUP(C133,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8644,7 +8643,7 @@
         <f>VLOOKUP(C134,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8662,7 +8661,7 @@
         <f>VLOOKUP(C135,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8680,7 +8679,7 @@
         <f>VLOOKUP(C136,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E136" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8698,7 +8697,7 @@
         <f>VLOOKUP(C137,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E137" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8716,7 +8715,7 @@
         <f>VLOOKUP(C138,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8734,7 +8733,7 @@
         <f>VLOOKUP(C139,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8752,7 +8751,7 @@
         <f>VLOOKUP(C140,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8770,7 +8769,7 @@
         <f>VLOOKUP(C141,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E141" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8788,7 +8787,7 @@
         <f>VLOOKUP(C142,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E142" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8806,7 +8805,7 @@
         <f>VLOOKUP(C143,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E143" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8824,7 +8823,7 @@
         <f>VLOOKUP(C144,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E144" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8842,7 +8841,7 @@
         <f>VLOOKUP(C145,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E145" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8860,7 +8859,7 @@
         <f>VLOOKUP(C146,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E146" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8878,7 +8877,7 @@
         <f>VLOOKUP(C147,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8896,7 +8895,7 @@
         <f>VLOOKUP(C148,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E148" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8914,7 +8913,7 @@
         <f>VLOOKUP(C149,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E149" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8932,7 +8931,7 @@
         <f>VLOOKUP(C150,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E150" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8950,7 +8949,7 @@
         <f>VLOOKUP(C151,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E151" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8968,7 +8967,7 @@
         <f>VLOOKUP(C152,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E152" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -8986,7 +8985,7 @@
         <f>VLOOKUP(C153,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="E153" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9004,7 +9003,7 @@
         <f>VLOOKUP(C154,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E154" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -9022,7 +9021,7 @@
         <f>VLOOKUP(C155,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E155" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9040,7 +9039,7 @@
         <f>VLOOKUP(C156,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E156" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9058,7 +9057,7 @@
         <f>VLOOKUP(C157,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E157" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -9076,7 +9075,7 @@
         <f>VLOOKUP(C158,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E158" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9094,7 +9093,7 @@
         <f>VLOOKUP(C159,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E159" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -9112,7 +9111,7 @@
         <f>VLOOKUP(C160,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E160" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -9130,7 +9129,7 @@
         <f>VLOOKUP(C161,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E161" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9148,7 +9147,7 @@
         <f>VLOOKUP(C162,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E162" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -9166,7 +9165,7 @@
         <f>VLOOKUP(C163,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="E163" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9184,7 +9183,7 @@
         <f>VLOOKUP(C164,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E164" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9202,7 +9201,7 @@
         <f>VLOOKUP(C165,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E165" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9220,7 +9219,7 @@
         <f>VLOOKUP(C166,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="E166" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -9238,7 +9237,7 @@
         <f>VLOOKUP(C167,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="E167" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9256,7 +9255,7 @@
         <f>VLOOKUP(C168,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="E168" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9274,7 +9273,7 @@
         <f>VLOOKUP(C169,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="E169" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -9292,7 +9291,7 @@
         <f>VLOOKUP(C170,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="E170" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9310,7 +9309,7 @@
         <f>VLOOKUP(C171,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E171" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9328,7 +9327,7 @@
         <f>VLOOKUP(C172,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="E172" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9346,7 +9345,7 @@
         <f>VLOOKUP(C173,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="E173" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9364,7 +9363,7 @@
         <f>VLOOKUP(C174,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="E174" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9382,7 +9381,7 @@
         <f>VLOOKUP(C175,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="E175" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9400,7 +9399,7 @@
         <f>VLOOKUP(C176,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E176" s="2" t="s">
+      <c r="E176" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9418,7 +9417,7 @@
         <f>VLOOKUP(C177,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="E177" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9436,7 +9435,7 @@
         <f>VLOOKUP(C178,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="E178" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -9454,8 +9453,8 @@
         <f>VLOOKUP(C179,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E179" s="2" t="s">
-        <v>1942</v>
+      <c r="E179" t="s">
+        <v>1943</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -9472,7 +9471,7 @@
         <f>VLOOKUP(C180,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="E180" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -9490,7 +9489,7 @@
         <f>VLOOKUP(C181,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="E181" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9508,7 +9507,7 @@
         <f>VLOOKUP(C182,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E182" s="2" t="s">
+      <c r="E182" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9526,7 +9525,7 @@
         <f>VLOOKUP(C183,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E183" s="2" t="s">
+      <c r="E183" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -9544,7 +9543,7 @@
         <f>VLOOKUP(C184,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E184" s="2" t="s">
+      <c r="E184" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9562,7 +9561,7 @@
         <f>VLOOKUP(C185,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E185" s="2" t="s">
+      <c r="E185" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9580,7 +9579,7 @@
         <f>VLOOKUP(C186,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E186" s="2" t="s">
+      <c r="E186" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -9598,7 +9597,7 @@
         <f>VLOOKUP(C187,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E187" s="2" t="s">
+      <c r="E187" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9616,7 +9615,7 @@
         <f>VLOOKUP(C188,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="E188" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9634,7 +9633,7 @@
         <f>VLOOKUP(C189,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E189" s="2" t="s">
+      <c r="E189" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -9652,7 +9651,7 @@
         <f>VLOOKUP(C190,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E190" s="2" t="s">
+      <c r="E190" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9670,7 +9669,7 @@
         <f>VLOOKUP(C191,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E191" s="2" t="s">
+      <c r="E191" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9688,7 +9687,7 @@
         <f>VLOOKUP(C192,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="E192" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9706,7 +9705,7 @@
         <f>VLOOKUP(C193,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E193" s="2" t="s">
+      <c r="E193" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -9724,7 +9723,7 @@
         <f>VLOOKUP(C194,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E194" s="2" t="s">
+      <c r="E194" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9742,7 +9741,7 @@
         <f>VLOOKUP(C195,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E195" s="2" t="s">
+      <c r="E195" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9760,7 +9759,7 @@
         <f>VLOOKUP(C196,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E196" s="2" t="s">
+      <c r="E196" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9778,7 +9777,7 @@
         <f>VLOOKUP(C197,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E197" s="2" t="s">
+      <c r="E197" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9796,7 +9795,7 @@
         <f>VLOOKUP(C198,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E198" s="2" t="s">
+      <c r="E198" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9814,7 +9813,7 @@
         <f>VLOOKUP(C199,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="E199" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9832,7 +9831,7 @@
         <f>VLOOKUP(C200,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="E200" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -9850,7 +9849,7 @@
         <f>VLOOKUP(C201,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E201" s="2" t="s">
+      <c r="E201" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9868,7 +9867,7 @@
         <f>VLOOKUP(C202,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E202" s="2" t="s">
+      <c r="E202" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -9886,7 +9885,7 @@
         <f>VLOOKUP(C203,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E203" s="2" t="s">
+      <c r="E203" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9904,7 +9903,7 @@
         <f>VLOOKUP(C204,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E204" s="2" t="s">
+      <c r="E204" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9922,7 +9921,7 @@
         <f>VLOOKUP(C205,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E205" s="2" t="s">
+      <c r="E205" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -9940,7 +9939,7 @@
         <f>VLOOKUP(C206,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="E206" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9958,7 +9957,7 @@
         <f>VLOOKUP(C207,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="E207" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9976,7 +9975,7 @@
         <f>VLOOKUP(C208,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="E208" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -9994,7 +9993,7 @@
         <f>VLOOKUP(C209,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E209" s="2" t="s">
+      <c r="E209" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10012,7 +10011,7 @@
         <f>VLOOKUP(C210,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="E210" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10030,7 +10029,7 @@
         <f>VLOOKUP(C211,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E211" s="2" t="s">
+      <c r="E211" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10048,7 +10047,7 @@
         <f>VLOOKUP(C212,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E212" s="2" t="s">
+      <c r="E212" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10066,7 +10065,7 @@
         <f>VLOOKUP(C213,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E213" s="2" t="s">
+      <c r="E213" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10084,7 +10083,7 @@
         <f>VLOOKUP(C214,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E214" s="2" t="s">
+      <c r="E214" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -10102,7 +10101,7 @@
         <f>VLOOKUP(C215,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="E215" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10120,7 +10119,7 @@
         <f>VLOOKUP(C216,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E216" s="2" t="s">
+      <c r="E216" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -10138,7 +10137,7 @@
         <f>VLOOKUP(C217,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E217" s="2" t="s">
+      <c r="E217" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10156,7 +10155,7 @@
         <f>VLOOKUP(C218,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E218" s="2" t="s">
+      <c r="E218" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10174,7 +10173,7 @@
         <f>VLOOKUP(C219,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E219" s="2" t="s">
+      <c r="E219" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10192,7 +10191,7 @@
         <f>VLOOKUP(C220,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E220" s="2" t="s">
+      <c r="E220" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10210,7 +10209,7 @@
         <f>VLOOKUP(C221,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E221" s="2" t="s">
+      <c r="E221" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10228,7 +10227,7 @@
         <f>VLOOKUP(C222,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E222" s="2" t="s">
+      <c r="E222" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10246,7 +10245,7 @@
         <f>VLOOKUP(C223,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E223" s="2" t="s">
+      <c r="E223" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10264,7 +10263,7 @@
         <f>VLOOKUP(C224,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E224" s="2" t="s">
+      <c r="E224" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10282,7 +10281,7 @@
         <f>VLOOKUP(C225,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E225" s="2" t="s">
+      <c r="E225" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -10300,7 +10299,7 @@
         <f>VLOOKUP(C226,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E226" s="2" t="s">
+      <c r="E226" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -10318,7 +10317,7 @@
         <f>VLOOKUP(C227,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E227" s="2" t="s">
+      <c r="E227" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10336,7 +10335,7 @@
         <f>VLOOKUP(C228,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E228" s="2" t="s">
+      <c r="E228" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -10354,7 +10353,7 @@
         <f>VLOOKUP(C229,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E229" s="2" t="s">
+      <c r="E229" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -10372,7 +10371,7 @@
         <f>VLOOKUP(C230,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E230" s="2" t="s">
+      <c r="E230" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -10390,7 +10389,7 @@
         <f>VLOOKUP(C231,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E231" s="2" t="s">
+      <c r="E231" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10408,7 +10407,7 @@
         <f>VLOOKUP(C232,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E232" s="2" t="s">
+      <c r="E232" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10426,7 +10425,7 @@
         <f>VLOOKUP(C233,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E233" s="2" t="s">
+      <c r="E233" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10444,7 +10443,7 @@
         <f>VLOOKUP(C234,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E234" s="2" t="s">
+      <c r="E234" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10462,7 +10461,7 @@
         <f>VLOOKUP(C235,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E235" s="2" t="s">
+      <c r="E235" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10480,7 +10479,7 @@
         <f>VLOOKUP(C236,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E236" s="2" t="s">
+      <c r="E236" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10498,7 +10497,7 @@
         <f>VLOOKUP(C237,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E237" s="2" t="s">
+      <c r="E237" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10516,7 +10515,7 @@
         <f>VLOOKUP(C238,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E238" s="2" t="s">
+      <c r="E238" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10534,7 +10533,7 @@
         <f>VLOOKUP(C239,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E239" s="2" t="s">
+      <c r="E239" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10552,7 +10551,7 @@
         <f>VLOOKUP(C240,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E240" s="2" t="s">
+      <c r="E240" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10570,7 +10569,7 @@
         <f>VLOOKUP(C241,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E241" s="2" t="s">
+      <c r="E241" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10588,7 +10587,7 @@
         <f>VLOOKUP(C242,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E242" s="2" t="s">
+      <c r="E242" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10606,7 +10605,7 @@
         <f>VLOOKUP(C243,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E243" s="2" t="s">
+      <c r="E243" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10624,7 +10623,7 @@
         <f>VLOOKUP(C244,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E244" s="2" t="s">
+      <c r="E244" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10642,7 +10641,7 @@
         <f>VLOOKUP(C245,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E245" s="2" t="s">
+      <c r="E245" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10660,7 +10659,7 @@
         <f>VLOOKUP(C246,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E246" s="2" t="s">
+      <c r="E246" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -10678,7 +10677,7 @@
         <f>VLOOKUP(C247,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E247" s="2" t="s">
+      <c r="E247" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10696,7 +10695,7 @@
         <f>VLOOKUP(C248,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E248" s="2" t="s">
+      <c r="E248" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -10714,7 +10713,7 @@
         <f>VLOOKUP(C249,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E249" s="2" t="s">
+      <c r="E249" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10732,7 +10731,7 @@
         <f>VLOOKUP(C250,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E250" s="2" t="s">
+      <c r="E250" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10750,7 +10749,7 @@
         <f>VLOOKUP(C251,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E251" s="2" t="s">
+      <c r="E251" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10768,7 +10767,7 @@
         <f>VLOOKUP(C252,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E252" s="2" t="s">
+      <c r="E252" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -10786,7 +10785,7 @@
         <f>VLOOKUP(C253,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E253" s="2" t="s">
+      <c r="E253" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10804,7 +10803,7 @@
         <f>VLOOKUP(C254,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E254" s="2" t="s">
+      <c r="E254" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10822,7 +10821,7 @@
         <f>VLOOKUP(C255,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E255" s="2" t="s">
+      <c r="E255" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10840,7 +10839,7 @@
         <f>VLOOKUP(C256,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E256" s="2" t="s">
+      <c r="E256" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10858,7 +10857,7 @@
         <f>VLOOKUP(C257,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E257" s="2" t="s">
+      <c r="E257" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10876,7 +10875,7 @@
         <f>VLOOKUP(C258,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E258" s="2" t="s">
+      <c r="E258" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -10894,7 +10893,7 @@
         <f>VLOOKUP(C259,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E259" s="2" t="s">
+      <c r="E259" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10912,7 +10911,7 @@
         <f>VLOOKUP(C260,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E260" s="2" t="s">
+      <c r="E260" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -10930,7 +10929,7 @@
         <f>VLOOKUP(C261,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E261" s="2" t="s">
+      <c r="E261" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10948,7 +10947,7 @@
         <f>VLOOKUP(C262,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E262" s="2" t="s">
+      <c r="E262" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -10966,7 +10965,7 @@
         <f>VLOOKUP(C263,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E263" s="2" t="s">
+      <c r="E263" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -10984,7 +10983,7 @@
         <f>VLOOKUP(C264,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E264" s="2" t="s">
+      <c r="E264" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -11002,7 +11001,7 @@
         <f>VLOOKUP(C265,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E265" s="2" t="s">
+      <c r="E265" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11020,7 +11019,7 @@
         <f>VLOOKUP(C266,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E266" s="2" t="s">
+      <c r="E266" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -11038,7 +11037,7 @@
         <f>VLOOKUP(C267,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E267" s="2" t="s">
+      <c r="E267" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -11056,7 +11055,7 @@
         <f>VLOOKUP(C268,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E268" s="2" t="s">
+      <c r="E268" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11074,7 +11073,7 @@
         <f>VLOOKUP(C269,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E269" s="2" t="s">
+      <c r="E269" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11092,7 +11091,7 @@
         <f>VLOOKUP(C270,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E270" s="2" t="s">
+      <c r="E270" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11110,7 +11109,7 @@
         <f>VLOOKUP(C271,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E271" s="2" t="s">
+      <c r="E271" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -11128,7 +11127,7 @@
         <f>VLOOKUP(C272,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E272" s="2" t="s">
+      <c r="E272" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11146,7 +11145,7 @@
         <f>VLOOKUP(C273,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E273" s="2" t="s">
+      <c r="E273" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11164,7 +11163,7 @@
         <f>VLOOKUP(C274,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E274" s="2" t="s">
+      <c r="E274" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11182,7 +11181,7 @@
         <f>VLOOKUP(C275,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E275" s="2" t="s">
+      <c r="E275" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11200,7 +11199,7 @@
         <f>VLOOKUP(C276,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E276" s="2" t="s">
+      <c r="E276" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11218,7 +11217,7 @@
         <f>VLOOKUP(C277,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E277" s="2" t="s">
+      <c r="E277" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11236,7 +11235,7 @@
         <f>VLOOKUP(C278,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E278" s="2" t="s">
+      <c r="E278" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11254,7 +11253,7 @@
         <f>VLOOKUP(C279,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E279" s="2" t="s">
+      <c r="E279" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11272,7 +11271,7 @@
         <f>VLOOKUP(C280,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E280" s="2" t="s">
+      <c r="E280" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11290,7 +11289,7 @@
         <f>VLOOKUP(C281,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E281" s="2" t="s">
+      <c r="E281" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11308,7 +11307,7 @@
         <f>VLOOKUP(C282,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E282" s="2" t="s">
+      <c r="E282" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11326,7 +11325,7 @@
         <f>VLOOKUP(C283,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E283" s="2" t="s">
+      <c r="E283" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11344,7 +11343,7 @@
         <f>VLOOKUP(C284,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E284" s="2" t="s">
+      <c r="E284" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11362,7 +11361,7 @@
         <f>VLOOKUP(C285,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E285" s="2" t="s">
+      <c r="E285" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11380,7 +11379,7 @@
         <f>VLOOKUP(C286,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E286" s="2" t="s">
+      <c r="E286" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11398,7 +11397,7 @@
         <f>VLOOKUP(C287,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E287" s="2" t="s">
+      <c r="E287" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11416,7 +11415,7 @@
         <f>VLOOKUP(C288,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E288" s="2" t="s">
+      <c r="E288" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11434,7 +11433,7 @@
         <f>VLOOKUP(C289,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E289" s="2" t="s">
+      <c r="E289" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11452,7 +11451,7 @@
         <f>VLOOKUP(C290,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E290" s="2" t="s">
+      <c r="E290" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11470,7 +11469,7 @@
         <f>VLOOKUP(C291,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E291" s="2" t="s">
+      <c r="E291" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -11488,7 +11487,7 @@
         <f>VLOOKUP(C292,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E292" s="2" t="s">
+      <c r="E292" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11506,7 +11505,7 @@
         <f>VLOOKUP(C293,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E293" s="2" t="s">
+      <c r="E293" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11524,7 +11523,7 @@
         <f>VLOOKUP(C294,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E294" s="2" t="s">
+      <c r="E294" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11542,7 +11541,7 @@
         <f>VLOOKUP(C295,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E295" s="2" t="s">
+      <c r="E295" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11560,7 +11559,7 @@
         <f>VLOOKUP(C296,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E296" s="2" t="s">
+      <c r="E296" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11578,7 +11577,7 @@
         <f>VLOOKUP(C297,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E297" s="2" t="s">
+      <c r="E297" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11596,7 +11595,7 @@
         <f>VLOOKUP(C298,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E298" s="2" t="s">
+      <c r="E298" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11614,7 +11613,7 @@
         <f>VLOOKUP(C299,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E299" s="2" t="s">
+      <c r="E299" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11632,7 +11631,7 @@
         <f>VLOOKUP(C300,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E300" s="2" t="s">
+      <c r="E300" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11650,7 +11649,7 @@
         <f>VLOOKUP(C301,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E301" s="2" t="s">
+      <c r="E301" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11668,7 +11667,7 @@
         <f>VLOOKUP(C302,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E302" s="2" t="s">
+      <c r="E302" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11686,7 +11685,7 @@
         <f>VLOOKUP(C303,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E303" s="2" t="s">
+      <c r="E303" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11704,7 +11703,7 @@
         <f>VLOOKUP(C304,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E304" s="2" t="s">
+      <c r="E304" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11722,7 +11721,7 @@
         <f>VLOOKUP(C305,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E305" s="2" t="s">
+      <c r="E305" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11740,7 +11739,7 @@
         <f>VLOOKUP(C306,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E306" s="2" t="s">
+      <c r="E306" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11758,7 +11757,7 @@
         <f>VLOOKUP(C307,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E307" s="2" t="s">
+      <c r="E307" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11776,7 +11775,7 @@
         <f>VLOOKUP(C308,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E308" s="2" t="s">
+      <c r="E308" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11794,7 +11793,7 @@
         <f>VLOOKUP(C309,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E309" s="2" t="s">
+      <c r="E309" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11812,7 +11811,7 @@
         <f>VLOOKUP(C310,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E310" s="2" t="s">
+      <c r="E310" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11830,7 +11829,7 @@
         <f>VLOOKUP(C311,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E311" s="2" t="s">
+      <c r="E311" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -11848,7 +11847,7 @@
         <f>VLOOKUP(C312,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E312" s="2" t="s">
+      <c r="E312" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11866,7 +11865,7 @@
         <f>VLOOKUP(C313,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E313" s="2" t="s">
+      <c r="E313" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11884,7 +11883,7 @@
         <f>VLOOKUP(C314,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E314" s="2" t="s">
+      <c r="E314" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11902,7 +11901,7 @@
         <f>VLOOKUP(C315,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E315" s="2" t="s">
+      <c r="E315" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11920,7 +11919,7 @@
         <f>VLOOKUP(C316,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E316" s="2" t="s">
+      <c r="E316" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11938,7 +11937,7 @@
         <f>VLOOKUP(C317,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E317" s="2" t="s">
+      <c r="E317" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11956,7 +11955,7 @@
         <f>VLOOKUP(C318,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E318" s="2" t="s">
+      <c r="E318" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11974,7 +11973,7 @@
         <f>VLOOKUP(C319,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E319" s="2" t="s">
+      <c r="E319" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -11992,7 +11991,7 @@
         <f>VLOOKUP(C320,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E320" s="2" t="s">
+      <c r="E320" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12010,7 +12009,7 @@
         <f>VLOOKUP(C321,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E321" s="2" t="s">
+      <c r="E321" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -12028,7 +12027,7 @@
         <f>VLOOKUP(C322,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E322" s="2" t="s">
+      <c r="E322" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12046,7 +12045,7 @@
         <f>VLOOKUP(C323,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E323" s="2" t="s">
+      <c r="E323" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12064,7 +12063,7 @@
         <f>VLOOKUP(C324,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E324" s="2" t="s">
+      <c r="E324" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12082,7 +12081,7 @@
         <f>VLOOKUP(C325,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E325" s="2" t="s">
+      <c r="E325" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -12100,7 +12099,7 @@
         <f>VLOOKUP(C326,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E326" s="2" t="s">
+      <c r="E326" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12118,7 +12117,7 @@
         <f>VLOOKUP(C327,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E327" s="2" t="s">
+      <c r="E327" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -12136,7 +12135,7 @@
         <f>VLOOKUP(C328,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E328" s="2" t="s">
+      <c r="E328" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12154,7 +12153,7 @@
         <f>VLOOKUP(C329,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E329" s="2" t="s">
+      <c r="E329" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12172,7 +12171,7 @@
         <f>VLOOKUP(C330,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E330" s="2" t="s">
+      <c r="E330" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12190,7 +12189,7 @@
         <f>VLOOKUP(C331,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E331" s="2" t="s">
+      <c r="E331" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -12208,7 +12207,7 @@
         <f>VLOOKUP(C332,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E332" s="2" t="s">
+      <c r="E332" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12226,7 +12225,7 @@
         <f>VLOOKUP(C333,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E333" s="2" t="s">
+      <c r="E333" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12244,7 +12243,7 @@
         <f>VLOOKUP(C334,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E334" s="2" t="s">
+      <c r="E334" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12262,7 +12261,7 @@
         <f>VLOOKUP(C335,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E335" s="2" t="s">
+      <c r="E335" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12280,7 +12279,7 @@
         <f>VLOOKUP(C336,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E336" s="2" t="s">
+      <c r="E336" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12298,7 +12297,7 @@
         <f>VLOOKUP(C337,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E337" s="2" t="s">
+      <c r="E337" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12316,7 +12315,7 @@
         <f>VLOOKUP(C338,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E338" s="2" t="s">
+      <c r="E338" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12334,7 +12333,7 @@
         <f>VLOOKUP(C339,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E339" s="2" t="s">
+      <c r="E339" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12352,7 +12351,7 @@
         <f>VLOOKUP(C340,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E340" s="2" t="s">
+      <c r="E340" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12370,7 +12369,7 @@
         <f>VLOOKUP(C341,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E341" s="2" t="s">
+      <c r="E341" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12388,7 +12387,7 @@
         <f>VLOOKUP(C342,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E342" s="2" t="s">
+      <c r="E342" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -12406,7 +12405,7 @@
         <f>VLOOKUP(C343,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E343" s="2" t="s">
+      <c r="E343" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12424,7 +12423,7 @@
         <f>VLOOKUP(C344,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E344" s="2" t="s">
+      <c r="E344" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12442,7 +12441,7 @@
         <f>VLOOKUP(C345,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E345" s="2" t="s">
+      <c r="E345" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12460,7 +12459,7 @@
         <f>VLOOKUP(C346,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E346" s="2" t="s">
+      <c r="E346" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12478,7 +12477,7 @@
         <f>VLOOKUP(C347,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E347" s="2" t="s">
+      <c r="E347" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12496,7 +12495,7 @@
         <f>VLOOKUP(C348,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E348" s="2" t="s">
+      <c r="E348" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12514,7 +12513,7 @@
         <f>VLOOKUP(C349,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E349" s="2" t="s">
+      <c r="E349" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12532,7 +12531,7 @@
         <f>VLOOKUP(C350,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E350" s="2" t="s">
+      <c r="E350" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12550,7 +12549,7 @@
         <f>VLOOKUP(C351,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E351" s="2" t="s">
+      <c r="E351" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12568,7 +12567,7 @@
         <f>VLOOKUP(C352,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E352" s="2" t="s">
+      <c r="E352" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12586,7 +12585,7 @@
         <f>VLOOKUP(C353,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E353" s="2" t="s">
+      <c r="E353" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12604,7 +12603,7 @@
         <f>VLOOKUP(C354,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E354" s="2" t="s">
+      <c r="E354" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -12622,7 +12621,7 @@
         <f>VLOOKUP(C355,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E355" s="2" t="s">
+      <c r="E355" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12640,7 +12639,7 @@
         <f>VLOOKUP(C356,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E356" s="2" t="s">
+      <c r="E356" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12658,7 +12657,7 @@
         <f>VLOOKUP(C357,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E357" s="2" t="s">
+      <c r="E357" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12676,7 +12675,7 @@
         <f>VLOOKUP(C358,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E358" s="2" t="s">
+      <c r="E358" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -12694,7 +12693,7 @@
         <f>VLOOKUP(C359,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E359" s="2" t="s">
+      <c r="E359" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12712,7 +12711,7 @@
         <f>VLOOKUP(C360,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E360" s="2" t="s">
+      <c r="E360" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12730,7 +12729,7 @@
         <f>VLOOKUP(C361,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E361" s="2" t="s">
+      <c r="E361" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -12748,7 +12747,7 @@
         <f>VLOOKUP(C362,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E362" s="2" t="s">
+      <c r="E362" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12766,7 +12765,7 @@
         <f>VLOOKUP(C363,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E363" s="2" t="s">
+      <c r="E363" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12784,7 +12783,7 @@
         <f>VLOOKUP(C364,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E364" s="2" t="s">
+      <c r="E364" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12802,7 +12801,7 @@
         <f>VLOOKUP(C365,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E365" s="2" t="s">
+      <c r="E365" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12820,7 +12819,7 @@
         <f>VLOOKUP(C366,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E366" s="2" t="s">
+      <c r="E366" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12838,7 +12837,7 @@
         <f>VLOOKUP(C367,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E367" s="2" t="s">
+      <c r="E367" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12856,7 +12855,7 @@
         <f>VLOOKUP(C368,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E368" s="2" t="s">
+      <c r="E368" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12874,7 +12873,7 @@
         <f>VLOOKUP(C369,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E369" s="2" t="s">
+      <c r="E369" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12892,7 +12891,7 @@
         <f>VLOOKUP(C370,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E370" s="2" t="s">
+      <c r="E370" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12910,7 +12909,7 @@
         <f>VLOOKUP(C371,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E371" s="2" t="s">
+      <c r="E371" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12928,7 +12927,7 @@
         <f>VLOOKUP(C372,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E372" s="2" t="s">
+      <c r="E372" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12946,7 +12945,7 @@
         <f>VLOOKUP(C373,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E373" s="2" t="s">
+      <c r="E373" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12964,7 +12963,7 @@
         <f>VLOOKUP(C374,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E374" s="2" t="s">
+      <c r="E374" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -12982,7 +12981,7 @@
         <f>VLOOKUP(C375,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E375" s="2" t="s">
+      <c r="E375" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13000,7 +12999,7 @@
         <f>VLOOKUP(C376,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E376" s="2" t="s">
+      <c r="E376" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13018,7 +13017,7 @@
         <f>VLOOKUP(C377,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E377" s="2" t="s">
+      <c r="E377" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13036,7 +13035,7 @@
         <f>VLOOKUP(C378,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E378" s="2" t="s">
+      <c r="E378" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13054,7 +13053,7 @@
         <f>VLOOKUP(C379,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E379" s="2" t="s">
+      <c r="E379" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13072,7 +13071,7 @@
         <f>VLOOKUP(C380,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E380" s="2" t="s">
+      <c r="E380" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -13090,7 +13089,7 @@
         <f>VLOOKUP(C381,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E381" s="2" t="s">
+      <c r="E381" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -13108,7 +13107,7 @@
         <f>VLOOKUP(C382,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E382" s="2" t="s">
+      <c r="E382" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13126,7 +13125,7 @@
         <f>VLOOKUP(C383,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E383" s="2" t="s">
+      <c r="E383" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13144,7 +13143,7 @@
         <f>VLOOKUP(C384,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E384" s="2" t="s">
+      <c r="E384" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13162,7 +13161,7 @@
         <f>VLOOKUP(C385,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E385" s="2" t="s">
+      <c r="E385" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13180,7 +13179,7 @@
         <f>VLOOKUP(C386,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E386" s="2" t="s">
+      <c r="E386" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13198,7 +13197,7 @@
         <f>VLOOKUP(C387,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E387" s="2" t="s">
+      <c r="E387" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -13216,7 +13215,7 @@
         <f>VLOOKUP(C388,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E388" s="2" t="s">
+      <c r="E388" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13234,7 +13233,7 @@
         <f>VLOOKUP(C389,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E389" s="2" t="s">
+      <c r="E389" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13252,7 +13251,7 @@
         <f>VLOOKUP(C390,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E390" s="2" t="s">
+      <c r="E390" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -13270,7 +13269,7 @@
         <f>VLOOKUP(C391,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E391" s="2" t="s">
+      <c r="E391" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -13288,7 +13287,7 @@
         <f>VLOOKUP(C392,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E392" s="2" t="s">
+      <c r="E392" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13306,7 +13305,7 @@
         <f>VLOOKUP(C393,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E393" s="2" t="s">
+      <c r="E393" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -13324,7 +13323,7 @@
         <f>VLOOKUP(C394,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E394" s="2" t="s">
+      <c r="E394" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13342,7 +13341,7 @@
         <f>VLOOKUP(C395,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E395" s="2" t="s">
+      <c r="E395" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13360,7 +13359,7 @@
         <f>VLOOKUP(C396,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E396" s="2" t="s">
+      <c r="E396" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13378,7 +13377,7 @@
         <f>VLOOKUP(C397,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E397" s="2" t="s">
+      <c r="E397" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13396,7 +13395,7 @@
         <f>VLOOKUP(C398,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E398" s="2" t="s">
+      <c r="E398" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13414,7 +13413,7 @@
         <f>VLOOKUP(C399,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E399" s="2" t="s">
+      <c r="E399" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -13432,7 +13431,7 @@
         <f>VLOOKUP(C400,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E400" s="2" t="s">
+      <c r="E400" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13450,7 +13449,7 @@
         <f>VLOOKUP(C401,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E401" s="2" t="s">
+      <c r="E401" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13468,7 +13467,7 @@
         <f>VLOOKUP(C402,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E402" s="2" t="s">
+      <c r="E402" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13486,7 +13485,7 @@
         <f>VLOOKUP(C403,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E403" s="2" t="s">
+      <c r="E403" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -13504,7 +13503,7 @@
         <f>VLOOKUP(C404,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E404" s="2" t="s">
+      <c r="E404" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13522,7 +13521,7 @@
         <f>VLOOKUP(C405,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E405" s="2" t="s">
+      <c r="E405" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13540,7 +13539,7 @@
         <f>VLOOKUP(C406,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E406" s="2" t="s">
+      <c r="E406" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13558,7 +13557,7 @@
         <f>VLOOKUP(C407,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E407" s="2" t="s">
+      <c r="E407" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13576,7 +13575,7 @@
         <f>VLOOKUP(C408,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E408" s="2" t="s">
+      <c r="E408" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -13594,7 +13593,7 @@
         <f>VLOOKUP(C409,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E409" s="2" t="s">
+      <c r="E409" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13612,7 +13611,7 @@
         <f>VLOOKUP(C410,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E410" s="2" t="s">
+      <c r="E410" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -13630,7 +13629,7 @@
         <f>VLOOKUP(C411,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E411" s="2" t="s">
+      <c r="E411" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -13648,7 +13647,7 @@
         <f>VLOOKUP(C412,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E412" s="2" t="s">
+      <c r="E412" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13666,7 +13665,7 @@
         <f>VLOOKUP(C413,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E413" s="2" t="s">
+      <c r="E413" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13684,7 +13683,7 @@
         <f>VLOOKUP(C414,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E414" s="2" t="s">
+      <c r="E414" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13702,7 +13701,7 @@
         <f>VLOOKUP(C415,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E415" s="2" t="s">
+      <c r="E415" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -13720,7 +13719,7 @@
         <f>VLOOKUP(C416,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E416" s="2" t="s">
+      <c r="E416" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13738,7 +13737,7 @@
         <f>VLOOKUP(C417,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E417" s="2" t="s">
+      <c r="E417" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13756,7 +13755,7 @@
         <f>VLOOKUP(C418,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E418" s="2" t="s">
+      <c r="E418" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13774,7 +13773,7 @@
         <f>VLOOKUP(C419,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E419" s="2" t="s">
+      <c r="E419" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13792,7 +13791,7 @@
         <f>VLOOKUP(C420,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E420" s="2" t="s">
+      <c r="E420" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13810,7 +13809,7 @@
         <f>VLOOKUP(C421,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E421" s="2" t="s">
+      <c r="E421" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13828,7 +13827,7 @@
         <f>VLOOKUP(C422,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E422" s="2" t="s">
+      <c r="E422" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13846,7 +13845,7 @@
         <f>VLOOKUP(C423,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E423" s="2" t="s">
+      <c r="E423" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -13864,7 +13863,7 @@
         <f>VLOOKUP(C424,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E424" s="2" t="s">
+      <c r="E424" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13882,7 +13881,7 @@
         <f>VLOOKUP(C425,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E425" s="2" t="s">
+      <c r="E425" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13900,7 +13899,7 @@
         <f>VLOOKUP(C426,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E426" s="2" t="s">
+      <c r="E426" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -13918,7 +13917,7 @@
         <f>VLOOKUP(C427,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E427" s="2" t="s">
+      <c r="E427" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13936,7 +13935,7 @@
         <f>VLOOKUP(C428,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E428" s="2" t="s">
+      <c r="E428" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13954,7 +13953,7 @@
         <f>VLOOKUP(C429,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E429" s="2" t="s">
+      <c r="E429" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13972,7 +13971,7 @@
         <f>VLOOKUP(C430,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E430" s="2" t="s">
+      <c r="E430" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -13990,7 +13989,7 @@
         <f>VLOOKUP(C431,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E431" s="2" t="s">
+      <c r="E431" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -14008,7 +14007,7 @@
         <f>VLOOKUP(C432,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E432" s="2" t="s">
+      <c r="E432" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -14026,7 +14025,7 @@
         <f>VLOOKUP(C433,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E433" s="2" t="s">
+      <c r="E433" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14044,7 +14043,7 @@
         <f>VLOOKUP(C434,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E434" s="2" t="s">
+      <c r="E434" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14062,7 +14061,7 @@
         <f>VLOOKUP(C435,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E435" s="2" t="s">
+      <c r="E435" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14080,7 +14079,7 @@
         <f>VLOOKUP(C436,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E436" s="2" t="s">
+      <c r="E436" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14098,7 +14097,7 @@
         <f>VLOOKUP(C437,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E437" s="2" t="s">
+      <c r="E437" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14116,7 +14115,7 @@
         <f>VLOOKUP(C438,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E438" s="2" t="s">
+      <c r="E438" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14134,7 +14133,7 @@
         <f>VLOOKUP(C439,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E439" s="2" t="s">
+      <c r="E439" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14152,7 +14151,7 @@
         <f>VLOOKUP(C440,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E440" s="2" t="s">
+      <c r="E440" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -14170,7 +14169,7 @@
         <f>VLOOKUP(C441,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E441" s="2" t="s">
+      <c r="E441" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14188,7 +14187,7 @@
         <f>VLOOKUP(C442,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E442" s="2" t="s">
+      <c r="E442" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -14206,7 +14205,7 @@
         <f>VLOOKUP(C443,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E443" s="2" t="s">
+      <c r="E443" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -14224,7 +14223,7 @@
         <f>VLOOKUP(C444,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E444" s="2" t="s">
+      <c r="E444" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14242,7 +14241,7 @@
         <f>VLOOKUP(C445,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E445" s="2" t="s">
+      <c r="E445" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -14260,7 +14259,7 @@
         <f>VLOOKUP(C446,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E446" s="2" t="s">
+      <c r="E446" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14278,7 +14277,7 @@
         <f>VLOOKUP(C447,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E447" s="2" t="s">
+      <c r="E447" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14296,7 +14295,7 @@
         <f>VLOOKUP(C448,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E448" s="2" t="s">
+      <c r="E448" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14314,7 +14313,7 @@
         <f>VLOOKUP(C449,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E449" s="2" t="s">
+      <c r="E449" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14332,7 +14331,7 @@
         <f>VLOOKUP(C450,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E450" s="2" t="s">
+      <c r="E450" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14350,7 +14349,7 @@
         <f>VLOOKUP(C451,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E451" s="2" t="s">
+      <c r="E451" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -14368,7 +14367,7 @@
         <f>VLOOKUP(C452,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E452" s="2" t="s">
+      <c r="E452" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14386,7 +14385,7 @@
         <f>VLOOKUP(C453,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E453" s="2" t="s">
+      <c r="E453" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -14404,7 +14403,7 @@
         <f>VLOOKUP(C454,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E454" s="2" t="s">
+      <c r="E454" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14422,7 +14421,7 @@
         <f>VLOOKUP(C455,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E455" s="2" t="s">
+      <c r="E455" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14440,7 +14439,7 @@
         <f>VLOOKUP(C456,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E456" s="2" t="s">
+      <c r="E456" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14458,7 +14457,7 @@
         <f>VLOOKUP(C457,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E457" s="2" t="s">
+      <c r="E457" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14476,7 +14475,7 @@
         <f>VLOOKUP(C458,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E458" s="2" t="s">
+      <c r="E458" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14494,7 +14493,7 @@
         <f>VLOOKUP(C459,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E459" s="2" t="s">
+      <c r="E459" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14512,7 +14511,7 @@
         <f>VLOOKUP(C460,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E460" s="2" t="s">
+      <c r="E460" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -14530,7 +14529,7 @@
         <f>VLOOKUP(C461,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E461" s="2" t="s">
+      <c r="E461" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14548,7 +14547,7 @@
         <f>VLOOKUP(C462,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E462" s="2" t="s">
+      <c r="E462" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14566,7 +14565,7 @@
         <f>VLOOKUP(C463,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E463" s="2" t="s">
+      <c r="E463" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14584,7 +14583,7 @@
         <f>VLOOKUP(C464,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E464" s="2" t="s">
+      <c r="E464" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -14602,7 +14601,7 @@
         <f>VLOOKUP(C465,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E465" s="2" t="s">
+      <c r="E465" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14620,7 +14619,7 @@
         <f>VLOOKUP(C466,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E466" s="2" t="s">
+      <c r="E466" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14638,7 +14637,7 @@
         <f>VLOOKUP(C467,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E467" s="2" t="s">
+      <c r="E467" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14656,7 +14655,7 @@
         <f>VLOOKUP(C468,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E468" s="2" t="s">
+      <c r="E468" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -14674,7 +14673,7 @@
         <f>VLOOKUP(C469,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E469" s="2" t="s">
+      <c r="E469" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14692,7 +14691,7 @@
         <f>VLOOKUP(C470,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E470" s="2" t="s">
+      <c r="E470" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14710,7 +14709,7 @@
         <f>VLOOKUP(C471,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E471" s="2" t="s">
+      <c r="E471" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -14728,7 +14727,7 @@
         <f>VLOOKUP(C472,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E472" s="2" t="s">
+      <c r="E472" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14746,7 +14745,7 @@
         <f>VLOOKUP(C473,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E473" s="2" t="s">
+      <c r="E473" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -14764,7 +14763,7 @@
         <f>VLOOKUP(C474,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E474" s="2" t="s">
+      <c r="E474" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14782,7 +14781,7 @@
         <f>VLOOKUP(C475,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E475" s="2" t="s">
+      <c r="E475" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14800,7 +14799,7 @@
         <f>VLOOKUP(C476,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E476" s="2" t="s">
+      <c r="E476" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14818,7 +14817,7 @@
         <f>VLOOKUP(C477,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E477" s="2" t="s">
+      <c r="E477" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14836,7 +14835,7 @@
         <f>VLOOKUP(C478,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E478" s="2" t="s">
+      <c r="E478" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14854,7 +14853,7 @@
         <f>VLOOKUP(C479,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E479" s="2" t="s">
+      <c r="E479" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14872,7 +14871,7 @@
         <f>VLOOKUP(C480,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E480" s="2" t="s">
+      <c r="E480" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14890,7 +14889,7 @@
         <f>VLOOKUP(C481,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E481" s="2" t="s">
+      <c r="E481" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -14908,7 +14907,7 @@
         <f>VLOOKUP(C482,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E482" s="2" t="s">
+      <c r="E482" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -14926,7 +14925,7 @@
         <f>VLOOKUP(C483,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E483" s="2" t="s">
+      <c r="E483" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14944,7 +14943,7 @@
         <f>VLOOKUP(C484,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E484" s="2" t="s">
+      <c r="E484" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14962,7 +14961,7 @@
         <f>VLOOKUP(C485,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E485" s="2" t="s">
+      <c r="E485" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14980,7 +14979,7 @@
         <f>VLOOKUP(C486,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E486" s="2" t="s">
+      <c r="E486" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -14998,7 +14997,7 @@
         <f>VLOOKUP(C487,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E487" s="2" t="s">
+      <c r="E487" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15016,7 +15015,7 @@
         <f>VLOOKUP(C488,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E488" s="2" t="s">
+      <c r="E488" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15034,7 +15033,7 @@
         <f>VLOOKUP(C489,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E489" s="2" t="s">
+      <c r="E489" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15052,7 +15051,7 @@
         <f>VLOOKUP(C490,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E490" s="2" t="s">
+      <c r="E490" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15070,7 +15069,7 @@
         <f>VLOOKUP(C491,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E491" s="2" t="s">
+      <c r="E491" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15088,7 +15087,7 @@
         <f>VLOOKUP(C492,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E492" s="2" t="s">
+      <c r="E492" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15106,7 +15105,7 @@
         <f>VLOOKUP(C493,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E493" s="2" t="s">
+      <c r="E493" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -15124,7 +15123,7 @@
         <f>VLOOKUP(C494,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E494" s="2" t="s">
+      <c r="E494" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15142,7 +15141,7 @@
         <f>VLOOKUP(C495,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E495" s="2" t="s">
+      <c r="E495" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15160,7 +15159,7 @@
         <f>VLOOKUP(C496,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E496" s="2" t="s">
+      <c r="E496" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15178,7 +15177,7 @@
         <f>VLOOKUP(C497,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E497" s="2" t="s">
+      <c r="E497" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15196,7 +15195,7 @@
         <f>VLOOKUP(C498,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E498" s="2" t="s">
+      <c r="E498" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15214,7 +15213,7 @@
         <f>VLOOKUP(C499,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E499" s="2" t="s">
+      <c r="E499" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -15232,7 +15231,7 @@
         <f>VLOOKUP(C500,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E500" s="2" t="s">
+      <c r="E500" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15250,7 +15249,7 @@
         <f>VLOOKUP(C501,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E501" s="2" t="s">
+      <c r="E501" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15268,7 +15267,7 @@
         <f>VLOOKUP(C502,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E502" s="2" t="s">
+      <c r="E502" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15286,7 +15285,7 @@
         <f>VLOOKUP(C503,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E503" s="2" t="s">
+      <c r="E503" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15304,7 +15303,7 @@
         <f>VLOOKUP(C504,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E504" s="2" t="s">
+      <c r="E504" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15322,7 +15321,7 @@
         <f>VLOOKUP(C505,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E505" s="2" t="s">
+      <c r="E505" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15340,7 +15339,7 @@
         <f>VLOOKUP(C506,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E506" s="2" t="s">
+      <c r="E506" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15358,7 +15357,7 @@
         <f>VLOOKUP(C507,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E507" s="2" t="s">
+      <c r="E507" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15376,7 +15375,7 @@
         <f>VLOOKUP(C508,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E508" s="2" t="s">
+      <c r="E508" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15394,7 +15393,7 @@
         <f>VLOOKUP(C509,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E509" s="2" t="s">
+      <c r="E509" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15412,7 +15411,7 @@
         <f>VLOOKUP(C510,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E510" s="2" t="s">
+      <c r="E510" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15430,7 +15429,7 @@
         <f>VLOOKUP(C511,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E511" s="2" t="s">
+      <c r="E511" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15448,7 +15447,7 @@
         <f>VLOOKUP(C512,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E512" s="2" t="s">
+      <c r="E512" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15466,7 +15465,7 @@
         <f>VLOOKUP(C513,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E513" s="2" t="s">
+      <c r="E513" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15484,7 +15483,7 @@
         <f>VLOOKUP(C514,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E514" s="2" t="s">
+      <c r="E514" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -15502,7 +15501,7 @@
         <f>VLOOKUP(C515,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E515" s="2" t="s">
+      <c r="E515" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -15520,7 +15519,7 @@
         <f>VLOOKUP(C516,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E516" s="2" t="s">
+      <c r="E516" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -15538,7 +15537,7 @@
         <f>VLOOKUP(C517,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E517" s="2" t="s">
+      <c r="E517" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15556,7 +15555,7 @@
         <f>VLOOKUP(C518,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E518" s="2" t="s">
+      <c r="E518" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15574,7 +15573,7 @@
         <f>VLOOKUP(C519,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E519" s="2" t="s">
+      <c r="E519" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15592,7 +15591,7 @@
         <f>VLOOKUP(C520,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E520" s="2" t="s">
+      <c r="E520" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15610,7 +15609,7 @@
         <f>VLOOKUP(C521,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E521" s="2" t="s">
+      <c r="E521" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -15628,7 +15627,7 @@
         <f>VLOOKUP(C522,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E522" s="2" t="s">
+      <c r="E522" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15646,7 +15645,7 @@
         <f>VLOOKUP(C523,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E523" s="2" t="s">
+      <c r="E523" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -15664,7 +15663,7 @@
         <f>VLOOKUP(C524,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E524" s="2" t="s">
+      <c r="E524" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15682,7 +15681,7 @@
         <f>VLOOKUP(C525,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E525" s="2" t="s">
+      <c r="E525" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15700,7 +15699,7 @@
         <f>VLOOKUP(C526,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E526" s="2" t="s">
+      <c r="E526" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15718,7 +15717,7 @@
         <f>VLOOKUP(C527,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E527" s="2" t="s">
+      <c r="E527" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15736,7 +15735,7 @@
         <f>VLOOKUP(C528,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E528" s="2" t="s">
+      <c r="E528" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15754,7 +15753,7 @@
         <f>VLOOKUP(C529,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E529" s="2" t="s">
+      <c r="E529" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15772,7 +15771,7 @@
         <f>VLOOKUP(C530,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E530" s="2" t="s">
+      <c r="E530" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -15790,7 +15789,7 @@
         <f>VLOOKUP(C531,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E531" s="2" t="s">
+      <c r="E531" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15808,7 +15807,7 @@
         <f>VLOOKUP(C532,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E532" s="2" t="s">
+      <c r="E532" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15826,7 +15825,7 @@
         <f>VLOOKUP(C533,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E533" s="2" t="s">
+      <c r="E533" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15844,7 +15843,7 @@
         <f>VLOOKUP(C534,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E534" s="2" t="s">
+      <c r="E534" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15862,7 +15861,7 @@
         <f>VLOOKUP(C535,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E535" s="2" t="s">
+      <c r="E535" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15880,7 +15879,7 @@
         <f>VLOOKUP(C536,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E536" s="2" t="s">
+      <c r="E536" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15898,7 +15897,7 @@
         <f>VLOOKUP(C537,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E537" s="2" t="s">
+      <c r="E537" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15916,7 +15915,7 @@
         <f>VLOOKUP(C538,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E538" s="2" t="s">
+      <c r="E538" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15934,7 +15933,7 @@
         <f>VLOOKUP(C539,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E539" s="2" t="s">
+      <c r="E539" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15952,7 +15951,7 @@
         <f>VLOOKUP(C540,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E540" s="2" t="s">
+      <c r="E540" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15970,7 +15969,7 @@
         <f>VLOOKUP(C541,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E541" s="2" t="s">
+      <c r="E541" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -15988,7 +15987,7 @@
         <f>VLOOKUP(C542,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E542" s="2" t="s">
+      <c r="E542" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16006,7 +16005,7 @@
         <f>VLOOKUP(C543,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E543" s="2" t="s">
+      <c r="E543" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -16024,7 +16023,7 @@
         <f>VLOOKUP(C544,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E544" s="2" t="s">
+      <c r="E544" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16042,7 +16041,7 @@
         <f>VLOOKUP(C545,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E545" s="2" t="s">
+      <c r="E545" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -16060,7 +16059,7 @@
         <f>VLOOKUP(C546,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E546" s="2" t="s">
+      <c r="E546" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16078,7 +16077,7 @@
         <f>VLOOKUP(C547,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E547" s="2" t="s">
+      <c r="E547" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16096,7 +16095,7 @@
         <f>VLOOKUP(C548,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E548" s="2" t="s">
+      <c r="E548" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16114,7 +16113,7 @@
         <f>VLOOKUP(C549,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E549" s="2" t="s">
+      <c r="E549" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16132,7 +16131,7 @@
         <f>VLOOKUP(C550,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E550" s="2" t="s">
+      <c r="E550" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16150,7 +16149,7 @@
         <f>VLOOKUP(C551,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E551" s="2" t="s">
+      <c r="E551" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16168,7 +16167,7 @@
         <f>VLOOKUP(C552,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E552" s="2" t="s">
+      <c r="E552" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16186,7 +16185,7 @@
         <f>VLOOKUP(C553,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E553" s="2" t="s">
+      <c r="E553" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16204,7 +16203,7 @@
         <f>VLOOKUP(C554,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E554" s="2" t="s">
+      <c r="E554" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16222,7 +16221,7 @@
         <f>VLOOKUP(C555,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E555" s="2" t="s">
+      <c r="E555" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16240,7 +16239,7 @@
         <f>VLOOKUP(C556,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E556" s="2" t="s">
+      <c r="E556" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16258,7 +16257,7 @@
         <f>VLOOKUP(C557,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E557" s="2" t="s">
+      <c r="E557" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16276,7 +16275,7 @@
         <f>VLOOKUP(C558,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E558" s="2" t="s">
+      <c r="E558" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16294,7 +16293,7 @@
         <f>VLOOKUP(C559,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E559" s="2" t="s">
+      <c r="E559" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16312,7 +16311,7 @@
         <f>VLOOKUP(C560,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E560" s="2" t="s">
+      <c r="E560" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16330,7 +16329,7 @@
         <f>VLOOKUP(C561,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E561" s="2" t="s">
+      <c r="E561" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16348,7 +16347,7 @@
         <f>VLOOKUP(C562,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E562" s="2" t="s">
+      <c r="E562" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16366,7 +16365,7 @@
         <f>VLOOKUP(C563,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E563" s="2" t="s">
+      <c r="E563" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16384,7 +16383,7 @@
         <f>VLOOKUP(C564,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E564" s="2" t="s">
+      <c r="E564" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -16402,7 +16401,7 @@
         <f>VLOOKUP(C565,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E565" s="2" t="s">
+      <c r="E565" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16420,7 +16419,7 @@
         <f>VLOOKUP(C566,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E566" s="2" t="s">
+      <c r="E566" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16438,7 +16437,7 @@
         <f>VLOOKUP(C567,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E567" s="2" t="s">
+      <c r="E567" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16456,7 +16455,7 @@
         <f>VLOOKUP(C568,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E568" s="2" t="s">
+      <c r="E568" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16474,7 +16473,7 @@
         <f>VLOOKUP(C569,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E569" s="2" t="s">
+      <c r="E569" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16492,7 +16491,7 @@
         <f>VLOOKUP(C570,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E570" s="2" t="s">
+      <c r="E570" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16510,7 +16509,7 @@
         <f>VLOOKUP(C571,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E571" s="2" t="s">
+      <c r="E571" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16528,7 +16527,7 @@
         <f>VLOOKUP(C572,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E572" s="2" t="s">
+      <c r="E572" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16546,7 +16545,7 @@
         <f>VLOOKUP(C573,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E573" s="2" t="s">
+      <c r="E573" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16564,7 +16563,7 @@
         <f>VLOOKUP(C574,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E574" s="2" t="s">
+      <c r="E574" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16582,7 +16581,7 @@
         <f>VLOOKUP(C575,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E575" s="2" t="s">
+      <c r="E575" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16600,7 +16599,7 @@
         <f>VLOOKUP(C576,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E576" s="2" t="s">
+      <c r="E576" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16618,7 +16617,7 @@
         <f>VLOOKUP(C577,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E577" s="2" t="s">
+      <c r="E577" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16636,7 +16635,7 @@
         <f>VLOOKUP(C578,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E578" s="2" t="s">
+      <c r="E578" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16654,7 +16653,7 @@
         <f>VLOOKUP(C579,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E579" s="2" t="s">
+      <c r="E579" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16672,7 +16671,7 @@
         <f>VLOOKUP(C580,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E580" s="2" t="s">
+      <c r="E580" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16690,7 +16689,7 @@
         <f>VLOOKUP(C581,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E581" s="2" t="s">
+      <c r="E581" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16708,7 +16707,7 @@
         <f>VLOOKUP(C582,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E582" s="2" t="s">
+      <c r="E582" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -16726,7 +16725,7 @@
         <f>VLOOKUP(C583,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E583" s="2" t="s">
+      <c r="E583" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16744,7 +16743,7 @@
         <f>VLOOKUP(C584,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E584" s="2" t="s">
+      <c r="E584" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16762,7 +16761,7 @@
         <f>VLOOKUP(C585,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E585" s="2" t="s">
+      <c r="E585" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16780,7 +16779,7 @@
         <f>VLOOKUP(C586,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E586" s="2" t="s">
+      <c r="E586" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16798,7 +16797,7 @@
         <f>VLOOKUP(C587,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E587" s="2" t="s">
+      <c r="E587" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16816,7 +16815,7 @@
         <f>VLOOKUP(C588,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E588" s="2" t="s">
+      <c r="E588" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16834,7 +16833,7 @@
         <f>VLOOKUP(C589,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E589" s="2" t="s">
+      <c r="E589" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -16852,7 +16851,7 @@
         <f>VLOOKUP(C590,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E590" s="2" t="s">
+      <c r="E590" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -16870,7 +16869,7 @@
         <f>VLOOKUP(C591,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E591" s="2" t="s">
+      <c r="E591" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16888,7 +16887,7 @@
         <f>VLOOKUP(C592,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E592" s="2" t="s">
+      <c r="E592" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16906,7 +16905,7 @@
         <f>VLOOKUP(C593,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E593" s="2" t="s">
+      <c r="E593" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -16924,7 +16923,7 @@
         <f>VLOOKUP(C594,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E594" s="2" t="s">
+      <c r="E594" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16942,7 +16941,7 @@
         <f>VLOOKUP(C595,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E595" s="2" t="s">
+      <c r="E595" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16960,7 +16959,7 @@
         <f>VLOOKUP(C596,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E596" s="2" t="s">
+      <c r="E596" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16978,7 +16977,7 @@
         <f>VLOOKUP(C597,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E597" s="2" t="s">
+      <c r="E597" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -16996,7 +16995,7 @@
         <f>VLOOKUP(C598,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E598" s="2" t="s">
+      <c r="E598" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17014,7 +17013,7 @@
         <f>VLOOKUP(C599,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E599" s="2" t="s">
+      <c r="E599" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17032,7 +17031,7 @@
         <f>VLOOKUP(C600,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E600" s="2" t="s">
+      <c r="E600" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17050,7 +17049,7 @@
         <f>VLOOKUP(C601,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E601" s="2" t="s">
+      <c r="E601" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17068,7 +17067,7 @@
         <f>VLOOKUP(C602,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E602" s="2" t="s">
+      <c r="E602" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17086,7 +17085,7 @@
         <f>VLOOKUP(C603,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E603" s="2" t="s">
+      <c r="E603" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17104,7 +17103,7 @@
         <f>VLOOKUP(C604,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E604" s="2" t="s">
+      <c r="E604" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17122,7 +17121,7 @@
         <f>VLOOKUP(C605,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E605" s="2" t="s">
+      <c r="E605" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17140,7 +17139,7 @@
         <f>VLOOKUP(C606,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E606" s="2" t="s">
+      <c r="E606" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17158,7 +17157,7 @@
         <f>VLOOKUP(C607,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E607" s="2" t="s">
+      <c r="E607" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -17176,7 +17175,7 @@
         <f>VLOOKUP(C608,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E608" s="2" t="s">
+      <c r="E608" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17194,7 +17193,7 @@
         <f>VLOOKUP(C609,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E609" s="2" t="s">
+      <c r="E609" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17212,7 +17211,7 @@
         <f>VLOOKUP(C610,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E610" s="2" t="s">
+      <c r="E610" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17230,7 +17229,7 @@
         <f>VLOOKUP(C611,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E611" s="2" t="s">
+      <c r="E611" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17248,7 +17247,7 @@
         <f>VLOOKUP(C612,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E612" s="2" t="s">
+      <c r="E612" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -17266,7 +17265,7 @@
         <f>VLOOKUP(C613,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E613" s="2" t="s">
+      <c r="E613" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17284,7 +17283,7 @@
         <f>VLOOKUP(C614,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E614" s="2" t="s">
+      <c r="E614" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17302,7 +17301,7 @@
         <f>VLOOKUP(C615,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E615" s="2" t="s">
+      <c r="E615" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17320,7 +17319,7 @@
         <f>VLOOKUP(C616,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E616" s="2" t="s">
+      <c r="E616" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17338,7 +17337,7 @@
         <f>VLOOKUP(C617,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E617" s="2" t="s">
+      <c r="E617" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17356,7 +17355,7 @@
         <f>VLOOKUP(C618,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E618" s="2" t="s">
+      <c r="E618" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17374,7 +17373,7 @@
         <f>VLOOKUP(C619,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E619" s="2" t="s">
+      <c r="E619" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17392,7 +17391,7 @@
         <f>VLOOKUP(C620,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E620" s="2" t="s">
+      <c r="E620" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17410,7 +17409,7 @@
         <f>VLOOKUP(C621,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E621" s="2" t="s">
+      <c r="E621" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17428,7 +17427,7 @@
         <f>VLOOKUP(C622,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E622" s="2" t="s">
+      <c r="E622" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -17446,7 +17445,7 @@
         <f>VLOOKUP(C623,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E623" s="2" t="s">
+      <c r="E623" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -17464,7 +17463,7 @@
         <f>VLOOKUP(C624,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E624" s="2" t="s">
+      <c r="E624" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17482,7 +17481,7 @@
         <f>VLOOKUP(C625,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E625" s="2" t="s">
+      <c r="E625" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17500,7 +17499,7 @@
         <f>VLOOKUP(C626,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E626" s="2" t="s">
+      <c r="E626" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17518,7 +17517,7 @@
         <f>VLOOKUP(C627,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E627" s="2" t="s">
+      <c r="E627" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17536,7 +17535,7 @@
         <f>VLOOKUP(C628,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E628" s="2" t="s">
+      <c r="E628" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17554,7 +17553,7 @@
         <f>VLOOKUP(C629,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E629" s="2" t="s">
+      <c r="E629" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17572,7 +17571,7 @@
         <f>VLOOKUP(C630,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E630" s="2" t="s">
+      <c r="E630" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -17590,7 +17589,7 @@
         <f>VLOOKUP(C631,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E631" s="2" t="s">
+      <c r="E631" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17608,7 +17607,7 @@
         <f>VLOOKUP(C632,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E632" s="2" t="s">
+      <c r="E632" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -17626,7 +17625,7 @@
         <f>VLOOKUP(C633,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E633" s="2" t="s">
+      <c r="E633" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17644,7 +17643,7 @@
         <f>VLOOKUP(C634,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E634" s="2" t="s">
+      <c r="E634" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -17662,7 +17661,7 @@
         <f>VLOOKUP(C635,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E635" s="2" t="s">
+      <c r="E635" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -17680,7 +17679,7 @@
         <f>VLOOKUP(C636,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E636" s="2" t="s">
+      <c r="E636" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17698,7 +17697,7 @@
         <f>VLOOKUP(C637,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E637" s="2" t="s">
+      <c r="E637" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -17716,7 +17715,7 @@
         <f>VLOOKUP(C638,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E638" s="2" t="s">
+      <c r="E638" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -17734,7 +17733,7 @@
         <f>VLOOKUP(C639,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E639" s="2" t="s">
+      <c r="E639" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17752,7 +17751,7 @@
         <f>VLOOKUP(C640,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E640" s="2" t="s">
+      <c r="E640" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17770,7 +17769,7 @@
         <f>VLOOKUP(C641,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E641" s="2" t="s">
+      <c r="E641" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -17788,7 +17787,7 @@
         <f>VLOOKUP(C642,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E642" s="2" t="s">
+      <c r="E642" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17806,7 +17805,7 @@
         <f>VLOOKUP(C643,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E643" s="2" t="s">
+      <c r="E643" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17824,7 +17823,7 @@
         <f>VLOOKUP(C644,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E644" s="2" t="s">
+      <c r="E644" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17842,7 +17841,7 @@
         <f>VLOOKUP(C645,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E645" s="2" t="s">
+      <c r="E645" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -17860,7 +17859,7 @@
         <f>VLOOKUP(C646,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E646" s="2" t="s">
+      <c r="E646" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17878,7 +17877,7 @@
         <f>VLOOKUP(C647,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E647" s="2" t="s">
+      <c r="E647" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17896,7 +17895,7 @@
         <f>VLOOKUP(C648,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E648" s="2" t="s">
+      <c r="E648" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17914,7 +17913,7 @@
         <f>VLOOKUP(C649,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E649" s="2" t="s">
+      <c r="E649" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17932,7 +17931,7 @@
         <f>VLOOKUP(C650,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E650" s="2" t="s">
+      <c r="E650" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -17950,7 +17949,7 @@
         <f>VLOOKUP(C651,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E651" s="2" t="s">
+      <c r="E651" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -17968,7 +17967,7 @@
         <f>VLOOKUP(C652,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E652" s="2" t="s">
+      <c r="E652" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -17986,7 +17985,7 @@
         <f>VLOOKUP(C653,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E653" s="2" t="s">
+      <c r="E653" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -18004,7 +18003,7 @@
         <f>VLOOKUP(C654,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E654" s="2" t="s">
+      <c r="E654" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18022,7 +18021,7 @@
         <f>VLOOKUP(C655,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E655" s="2" t="s">
+      <c r="E655" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -18040,7 +18039,7 @@
         <f>VLOOKUP(C656,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E656" s="2" t="s">
+      <c r="E656" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18058,7 +18057,7 @@
         <f>VLOOKUP(C657,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E657" s="2" t="s">
+      <c r="E657" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -18076,7 +18075,7 @@
         <f>VLOOKUP(C658,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E658" s="2" t="s">
+      <c r="E658" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -18094,7 +18093,7 @@
         <f>VLOOKUP(C659,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E659" s="2" t="s">
+      <c r="E659" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18112,7 +18111,7 @@
         <f>VLOOKUP(C660,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E660" s="2" t="s">
+      <c r="E660" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18130,7 +18129,7 @@
         <f>VLOOKUP(C661,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E661" s="2" t="s">
+      <c r="E661" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -18148,7 +18147,7 @@
         <f>VLOOKUP(C662,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E662" s="2" t="s">
+      <c r="E662" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18166,7 +18165,7 @@
         <f>VLOOKUP(C663,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E663" s="2" t="s">
+      <c r="E663" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -18184,7 +18183,7 @@
         <f>VLOOKUP(C664,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E664" s="2" t="s">
+      <c r="E664" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18202,7 +18201,7 @@
         <f>VLOOKUP(C665,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E665" s="2" t="s">
+      <c r="E665" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18220,7 +18219,7 @@
         <f>VLOOKUP(C666,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E666" s="2" t="s">
+      <c r="E666" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -18238,7 +18237,7 @@
         <f>VLOOKUP(C667,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E667" s="2" t="s">
+      <c r="E667" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18256,7 +18255,7 @@
         <f>VLOOKUP(C668,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E668" s="2" t="s">
+      <c r="E668" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18274,7 +18273,7 @@
         <f>VLOOKUP(C669,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E669" s="2" t="s">
+      <c r="E669" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -18292,7 +18291,7 @@
         <f>VLOOKUP(C670,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E670" s="2" t="s">
+      <c r="E670" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18310,7 +18309,7 @@
         <f>VLOOKUP(C671,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E671" s="2" t="s">
+      <c r="E671" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18328,7 +18327,7 @@
         <f>VLOOKUP(C672,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E672" s="2" t="s">
+      <c r="E672" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18346,7 +18345,7 @@
         <f>VLOOKUP(C673,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E673" s="2" t="s">
+      <c r="E673" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -18364,7 +18363,7 @@
         <f>VLOOKUP(C674,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E674" s="2" t="s">
+      <c r="E674" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18382,7 +18381,7 @@
         <f>VLOOKUP(C675,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E675" s="2" t="s">
+      <c r="E675" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -18400,7 +18399,7 @@
         <f>VLOOKUP(C676,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E676" s="2" t="s">
+      <c r="E676" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -18418,7 +18417,7 @@
         <f>VLOOKUP(C677,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E677" s="2" t="s">
+      <c r="E677" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -18436,7 +18435,7 @@
         <f>VLOOKUP(C678,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E678" s="2" t="s">
+      <c r="E678" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18454,7 +18453,7 @@
         <f>VLOOKUP(C679,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E679" s="2" t="s">
+      <c r="E679" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18472,7 +18471,7 @@
         <f>VLOOKUP(C680,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E680" s="2" t="s">
+      <c r="E680" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18490,7 +18489,7 @@
         <f>VLOOKUP(C681,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E681" s="2" t="s">
+      <c r="E681" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -18508,7 +18507,7 @@
         <f>VLOOKUP(C682,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E682" s="2" t="s">
+      <c r="E682" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -18526,7 +18525,7 @@
         <f>VLOOKUP(C683,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E683" s="2" t="s">
+      <c r="E683" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18544,7 +18543,7 @@
         <f>VLOOKUP(C684,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E684" s="2" t="s">
+      <c r="E684" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18562,7 +18561,7 @@
         <f>VLOOKUP(C685,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E685" s="2" t="s">
+      <c r="E685" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18580,7 +18579,7 @@
         <f>VLOOKUP(C686,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E686" s="2" t="s">
+      <c r="E686" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -18598,7 +18597,7 @@
         <f>VLOOKUP(C687,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E687" s="2" t="s">
+      <c r="E687" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18616,7 +18615,7 @@
         <f>VLOOKUP(C688,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E688" s="2" t="s">
+      <c r="E688" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18634,7 +18633,7 @@
         <f>VLOOKUP(C689,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E689" s="2" t="s">
+      <c r="E689" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18652,7 +18651,7 @@
         <f>VLOOKUP(C690,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E690" s="2" t="s">
+      <c r="E690" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18670,7 +18669,7 @@
         <f>VLOOKUP(C691,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E691" s="2" t="s">
+      <c r="E691" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18688,7 +18687,7 @@
         <f>VLOOKUP(C692,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E692" s="2" t="s">
+      <c r="E692" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18706,7 +18705,7 @@
         <f>VLOOKUP(C693,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E693" s="2" t="s">
+      <c r="E693" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18724,7 +18723,7 @@
         <f>VLOOKUP(C694,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E694" s="2" t="s">
+      <c r="E694" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18742,7 +18741,7 @@
         <f>VLOOKUP(C695,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E695" s="2" t="s">
+      <c r="E695" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -18760,7 +18759,7 @@
         <f>VLOOKUP(C696,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E696" s="2" t="s">
+      <c r="E696" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -18778,7 +18777,7 @@
         <f>VLOOKUP(C697,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E697" s="2" t="s">
+      <c r="E697" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18796,7 +18795,7 @@
         <f>VLOOKUP(C698,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E698" s="2" t="s">
+      <c r="E698" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18814,7 +18813,7 @@
         <f>VLOOKUP(C699,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E699" s="2" t="s">
+      <c r="E699" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18832,7 +18831,7 @@
         <f>VLOOKUP(C700,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E700" s="2" t="s">
+      <c r="E700" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18850,7 +18849,7 @@
         <f>VLOOKUP(C701,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E701" s="2" t="s">
+      <c r="E701" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18868,7 +18867,7 @@
         <f>VLOOKUP(C702,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E702" s="2" t="s">
+      <c r="E702" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18886,7 +18885,7 @@
         <f>VLOOKUP(C703,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E703" s="2" t="s">
+      <c r="E703" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -18904,7 +18903,7 @@
         <f>VLOOKUP(C704,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E704" s="2" t="s">
+      <c r="E704" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18922,7 +18921,7 @@
         <f>VLOOKUP(C705,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E705" s="2" t="s">
+      <c r="E705" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18940,7 +18939,7 @@
         <f>VLOOKUP(C706,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E706" s="2" t="s">
+      <c r="E706" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18958,7 +18957,7 @@
         <f>VLOOKUP(C707,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E707" s="2" t="s">
+      <c r="E707" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18976,7 +18975,7 @@
         <f>VLOOKUP(C708,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E708" s="2" t="s">
+      <c r="E708" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -18994,7 +18993,7 @@
         <f>VLOOKUP(C709,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E709" s="2" t="s">
+      <c r="E709" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19012,7 +19011,7 @@
         <f>VLOOKUP(C710,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E710" s="2" t="s">
+      <c r="E710" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19030,7 +19029,7 @@
         <f>VLOOKUP(C711,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E711" s="2" t="s">
+      <c r="E711" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19048,7 +19047,7 @@
         <f>VLOOKUP(C712,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E712" s="2" t="s">
+      <c r="E712" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19066,7 +19065,7 @@
         <f>VLOOKUP(C713,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E713" s="2" t="s">
+      <c r="E713" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19084,7 +19083,7 @@
         <f>VLOOKUP(C714,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E714" s="2" t="s">
+      <c r="E714" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19102,7 +19101,7 @@
         <f>VLOOKUP(C715,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E715" s="2" t="s">
+      <c r="E715" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19120,7 +19119,7 @@
         <f>VLOOKUP(C716,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E716" s="2" t="s">
+      <c r="E716" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19138,7 +19137,7 @@
         <f>VLOOKUP(C717,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E717" s="2" t="s">
+      <c r="E717" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19156,7 +19155,7 @@
         <f>VLOOKUP(C718,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E718" s="2" t="s">
+      <c r="E718" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19174,7 +19173,7 @@
         <f>VLOOKUP(C719,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E719" s="2" t="s">
+      <c r="E719" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19192,7 +19191,7 @@
         <f>VLOOKUP(C720,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E720" s="2" t="s">
+      <c r="E720" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19210,7 +19209,7 @@
         <f>VLOOKUP(C721,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E721" s="2" t="s">
+      <c r="E721" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -19228,7 +19227,7 @@
         <f>VLOOKUP(C722,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E722" s="2" t="s">
+      <c r="E722" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19246,7 +19245,7 @@
         <f>VLOOKUP(C723,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E723" s="2" t="s">
+      <c r="E723" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19264,7 +19263,7 @@
         <f>VLOOKUP(C724,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E724" s="2" t="s">
+      <c r="E724" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19282,7 +19281,7 @@
         <f>VLOOKUP(C725,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E725" s="2" t="s">
+      <c r="E725" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19300,7 +19299,7 @@
         <f>VLOOKUP(C726,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E726" s="2" t="s">
+      <c r="E726" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19318,7 +19317,7 @@
         <f>VLOOKUP(C727,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E727" s="2" t="s">
+      <c r="E727" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -19336,7 +19335,7 @@
         <f>VLOOKUP(C728,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E728" s="2" t="s">
+      <c r="E728" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19354,7 +19353,7 @@
         <f>VLOOKUP(C729,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E729" s="2" t="s">
+      <c r="E729" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19372,7 +19371,7 @@
         <f>VLOOKUP(C730,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E730" s="2" t="s">
+      <c r="E730" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -19390,7 +19389,7 @@
         <f>VLOOKUP(C731,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E731" s="2" t="s">
+      <c r="E731" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19408,7 +19407,7 @@
         <f>VLOOKUP(C732,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E732" s="2" t="s">
+      <c r="E732" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19426,7 +19425,7 @@
         <f>VLOOKUP(C733,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E733" s="2" t="s">
+      <c r="E733" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -19444,7 +19443,7 @@
         <f>VLOOKUP(C734,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E734" s="2" t="s">
+      <c r="E734" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19462,7 +19461,7 @@
         <f>VLOOKUP(C735,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E735" s="2" t="s">
+      <c r="E735" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19480,7 +19479,7 @@
         <f>VLOOKUP(C736,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E736" s="2" t="s">
+      <c r="E736" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -19498,7 +19497,7 @@
         <f>VLOOKUP(C737,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E737" s="2" t="s">
+      <c r="E737" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -19516,7 +19515,7 @@
         <f>VLOOKUP(C738,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E738" s="2" t="s">
+      <c r="E738" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19534,7 +19533,7 @@
         <f>VLOOKUP(C739,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E739" s="2" t="s">
+      <c r="E739" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -19552,7 +19551,7 @@
         <f>VLOOKUP(C740,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E740" s="2" t="s">
+      <c r="E740" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19570,7 +19569,7 @@
         <f>VLOOKUP(C741,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E741" s="2" t="s">
+      <c r="E741" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19588,7 +19587,7 @@
         <f>VLOOKUP(C742,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E742" s="2" t="s">
+      <c r="E742" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -19606,7 +19605,7 @@
         <f>VLOOKUP(C743,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E743" s="2" t="s">
+      <c r="E743" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -19624,7 +19623,7 @@
         <f>VLOOKUP(C744,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E744" s="2" t="s">
+      <c r="E744" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -19642,7 +19641,7 @@
         <f>VLOOKUP(C745,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E745" s="2" t="s">
+      <c r="E745" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19660,7 +19659,7 @@
         <f>VLOOKUP(C746,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E746" s="2" t="s">
+      <c r="E746" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -19678,7 +19677,7 @@
         <f>VLOOKUP(C747,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E747" s="2" t="s">
+      <c r="E747" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19696,7 +19695,7 @@
         <f>VLOOKUP(C748,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E748" s="2" t="s">
+      <c r="E748" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19714,7 +19713,7 @@
         <f>VLOOKUP(C749,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E749" s="2" t="s">
+      <c r="E749" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -19732,7 +19731,7 @@
         <f>VLOOKUP(C750,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E750" s="2" t="s">
+      <c r="E750" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19750,7 +19749,7 @@
         <f>VLOOKUP(C751,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E751" s="2" t="s">
+      <c r="E751" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19768,7 +19767,7 @@
         <f>VLOOKUP(C752,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E752" s="2" t="s">
+      <c r="E752" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -19786,7 +19785,7 @@
         <f>VLOOKUP(C753,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E753" s="2" t="s">
+      <c r="E753" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -19804,7 +19803,7 @@
         <f>VLOOKUP(C754,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E754" s="2" t="s">
+      <c r="E754" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19822,7 +19821,7 @@
         <f>VLOOKUP(C755,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E755" s="2" t="s">
+      <c r="E755" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19840,7 +19839,7 @@
         <f>VLOOKUP(C756,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E756" s="2" t="s">
+      <c r="E756" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19858,7 +19857,7 @@
         <f>VLOOKUP(C757,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E757" s="2" t="s">
+      <c r="E757" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19876,7 +19875,7 @@
         <f>VLOOKUP(C758,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E758" s="2" t="s">
+      <c r="E758" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -19894,7 +19893,7 @@
         <f>VLOOKUP(C759,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E759" s="2" t="s">
+      <c r="E759" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19912,7 +19911,7 @@
         <f>VLOOKUP(C760,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E760" s="2" t="s">
+      <c r="E760" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19930,7 +19929,7 @@
         <f>VLOOKUP(C761,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E761" s="2" t="s">
+      <c r="E761" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19948,7 +19947,7 @@
         <f>VLOOKUP(C762,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E762" s="2" t="s">
+      <c r="E762" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -19966,7 +19965,7 @@
         <f>VLOOKUP(C763,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E763" s="2" t="s">
+      <c r="E763" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -19984,7 +19983,7 @@
         <f>VLOOKUP(C764,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E764" s="2" t="s">
+      <c r="E764" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -20002,7 +20001,7 @@
         <f>VLOOKUP(C765,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E765" s="2" t="s">
+      <c r="E765" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20020,7 +20019,7 @@
         <f>VLOOKUP(C766,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E766" s="2" t="s">
+      <c r="E766" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -20038,7 +20037,7 @@
         <f>VLOOKUP(C767,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E767" s="2" t="s">
+      <c r="E767" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20056,7 +20055,7 @@
         <f>VLOOKUP(C768,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E768" s="2" t="s">
+      <c r="E768" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20074,7 +20073,7 @@
         <f>VLOOKUP(C769,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E769" s="2" t="s">
+      <c r="E769" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20092,7 +20091,7 @@
         <f>VLOOKUP(C770,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E770" s="2" t="s">
+      <c r="E770" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20110,7 +20109,7 @@
         <f>VLOOKUP(C771,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E771" s="2" t="s">
+      <c r="E771" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20128,7 +20127,7 @@
         <f>VLOOKUP(C772,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E772" s="2" t="s">
+      <c r="E772" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20146,7 +20145,7 @@
         <f>VLOOKUP(C773,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E773" s="2" t="s">
+      <c r="E773" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -20164,7 +20163,7 @@
         <f>VLOOKUP(C774,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E774" s="2" t="s">
+      <c r="E774" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20182,7 +20181,7 @@
         <f>VLOOKUP(C775,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E775" s="2" t="s">
+      <c r="E775" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -20200,7 +20199,7 @@
         <f>VLOOKUP(C776,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E776" s="2" t="s">
+      <c r="E776" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20218,7 +20217,7 @@
         <f>VLOOKUP(C777,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E777" s="2" t="s">
+      <c r="E777" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20236,7 +20235,7 @@
         <f>VLOOKUP(C778,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E778" s="2" t="s">
+      <c r="E778" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -20254,7 +20253,7 @@
         <f>VLOOKUP(C779,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E779" s="2" t="s">
+      <c r="E779" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20272,7 +20271,7 @@
         <f>VLOOKUP(C780,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E780" s="2" t="s">
+      <c r="E780" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20290,7 +20289,7 @@
         <f>VLOOKUP(C781,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E781" s="2" t="s">
+      <c r="E781" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20308,7 +20307,7 @@
         <f>VLOOKUP(C782,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E782" s="2" t="s">
+      <c r="E782" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20326,7 +20325,7 @@
         <f>VLOOKUP(C783,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E783" s="2" t="s">
+      <c r="E783" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -20344,7 +20343,7 @@
         <f>VLOOKUP(C784,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E784" s="2" t="s">
+      <c r="E784" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20362,7 +20361,7 @@
         <f>VLOOKUP(C785,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E785" s="2" t="s">
+      <c r="E785" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20380,7 +20379,7 @@
         <f>VLOOKUP(C786,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E786" s="2" t="s">
+      <c r="E786" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -20398,7 +20397,7 @@
         <f>VLOOKUP(C787,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E787" s="2" t="s">
+      <c r="E787" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -20416,7 +20415,7 @@
         <f>VLOOKUP(C788,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E788" s="2" t="s">
+      <c r="E788" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20434,7 +20433,7 @@
         <f>VLOOKUP(C789,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E789" s="2" t="s">
+      <c r="E789" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20452,7 +20451,7 @@
         <f>VLOOKUP(C790,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E790" s="2" t="s">
+      <c r="E790" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20470,7 +20469,7 @@
         <f>VLOOKUP(C791,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E791" s="2" t="s">
+      <c r="E791" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20488,7 +20487,7 @@
         <f>VLOOKUP(C792,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E792" s="2" t="s">
+      <c r="E792" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -20506,7 +20505,7 @@
         <f>VLOOKUP(C793,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E793" s="2" t="s">
+      <c r="E793" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20524,7 +20523,7 @@
         <f>VLOOKUP(C794,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E794" s="2" t="s">
+      <c r="E794" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20542,7 +20541,7 @@
         <f>VLOOKUP(C795,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E795" s="2" t="s">
+      <c r="E795" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20560,7 +20559,7 @@
         <f>VLOOKUP(C796,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E796" s="2" t="s">
+      <c r="E796" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20578,7 +20577,7 @@
         <f>VLOOKUP(C797,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E797" s="2" t="s">
+      <c r="E797" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20596,7 +20595,7 @@
         <f>VLOOKUP(C798,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E798" s="2" t="s">
+      <c r="E798" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20614,7 +20613,7 @@
         <f>VLOOKUP(C799,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E799" s="2" t="s">
+      <c r="E799" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20632,7 +20631,7 @@
         <f>VLOOKUP(C800,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E800" s="2" t="s">
+      <c r="E800" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -20650,7 +20649,7 @@
         <f>VLOOKUP(C801,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E801" s="2" t="s">
+      <c r="E801" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20668,7 +20667,7 @@
         <f>VLOOKUP(C802,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E802" s="2" t="s">
+      <c r="E802" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20686,7 +20685,7 @@
         <f>VLOOKUP(C803,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E803" s="2" t="s">
+      <c r="E803" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20704,7 +20703,7 @@
         <f>VLOOKUP(C804,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E804" s="2" t="s">
+      <c r="E804" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20722,7 +20721,7 @@
         <f>VLOOKUP(C805,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E805" s="2" t="s">
+      <c r="E805" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20740,7 +20739,7 @@
         <f>VLOOKUP(C806,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E806" s="2" t="s">
+      <c r="E806" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20758,7 +20757,7 @@
         <f>VLOOKUP(C807,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E807" s="2" t="s">
+      <c r="E807" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -20776,7 +20775,7 @@
         <f>VLOOKUP(C808,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E808" s="2" t="s">
+      <c r="E808" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -20794,7 +20793,7 @@
         <f>VLOOKUP(C809,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E809" s="2" t="s">
+      <c r="E809" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -20812,7 +20811,7 @@
         <f>VLOOKUP(C810,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E810" s="2" t="s">
+      <c r="E810" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20830,7 +20829,7 @@
         <f>VLOOKUP(C811,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E811" s="2" t="s">
+      <c r="E811" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20848,7 +20847,7 @@
         <f>VLOOKUP(C812,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E812" s="2" t="s">
+      <c r="E812" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20866,7 +20865,7 @@
         <f>VLOOKUP(C813,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E813" s="2" t="s">
+      <c r="E813" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20884,7 +20883,7 @@
         <f>VLOOKUP(C814,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E814" s="2" t="s">
+      <c r="E814" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -20902,7 +20901,7 @@
         <f>VLOOKUP(C815,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E815" s="2" t="s">
+      <c r="E815" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20920,7 +20919,7 @@
         <f>VLOOKUP(C816,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E816" s="2" t="s">
+      <c r="E816" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20938,7 +20937,7 @@
         <f>VLOOKUP(C817,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E817" s="2" t="s">
+      <c r="E817" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -20956,7 +20955,7 @@
         <f>VLOOKUP(C818,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E818" s="2" t="s">
+      <c r="E818" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -20974,7 +20973,7 @@
         <f>VLOOKUP(C819,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E819" s="2" t="s">
+      <c r="E819" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20992,7 +20991,7 @@
         <f>VLOOKUP(C820,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E820" s="2" t="s">
+      <c r="E820" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21010,7 +21009,7 @@
         <f>VLOOKUP(C821,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E821" s="2" t="s">
+      <c r="E821" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21028,7 +21027,7 @@
         <f>VLOOKUP(C822,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E822" s="2" t="s">
+      <c r="E822" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21046,7 +21045,7 @@
         <f>VLOOKUP(C823,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E823" s="2" t="s">
+      <c r="E823" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -21064,7 +21063,7 @@
         <f>VLOOKUP(C824,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E824" s="2" t="s">
+      <c r="E824" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21082,7 +21081,7 @@
         <f>VLOOKUP(C825,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E825" s="2" t="s">
+      <c r="E825" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -21100,7 +21099,7 @@
         <f>VLOOKUP(C826,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E826" s="2" t="s">
+      <c r="E826" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -21118,7 +21117,7 @@
         <f>VLOOKUP(C827,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E827" s="2" t="s">
+      <c r="E827" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21136,7 +21135,7 @@
         <f>VLOOKUP(C828,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E828" s="2" t="s">
+      <c r="E828" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21154,7 +21153,7 @@
         <f>VLOOKUP(C829,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E829" s="2" t="s">
+      <c r="E829" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21172,7 +21171,7 @@
         <f>VLOOKUP(C830,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E830" s="2" t="s">
+      <c r="E830" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21190,7 +21189,7 @@
         <f>VLOOKUP(C831,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E831" s="2" t="s">
+      <c r="E831" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21208,7 +21207,7 @@
         <f>VLOOKUP(C832,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E832" s="2" t="s">
+      <c r="E832" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21226,7 +21225,7 @@
         <f>VLOOKUP(C833,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E833" s="2" t="s">
+      <c r="E833" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21244,7 +21243,7 @@
         <f>VLOOKUP(C834,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E834" s="2" t="s">
+      <c r="E834" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -21262,7 +21261,7 @@
         <f>VLOOKUP(C835,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E835" s="2" t="s">
+      <c r="E835" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21280,7 +21279,7 @@
         <f>VLOOKUP(C836,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E836" s="2" t="s">
+      <c r="E836" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21298,7 +21297,7 @@
         <f>VLOOKUP(C837,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E837" s="2" t="s">
+      <c r="E837" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21316,7 +21315,7 @@
         <f>VLOOKUP(C838,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E838" s="2" t="s">
+      <c r="E838" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21334,7 +21333,7 @@
         <f>VLOOKUP(C839,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E839" s="2" t="s">
+      <c r="E839" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21352,7 +21351,7 @@
         <f>VLOOKUP(C840,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E840" s="2" t="s">
+      <c r="E840" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21370,7 +21369,7 @@
         <f>VLOOKUP(C841,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E841" s="2" t="s">
+      <c r="E841" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -21388,7 +21387,7 @@
         <f>VLOOKUP(C842,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E842" s="2" t="s">
+      <c r="E842" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21406,7 +21405,7 @@
         <f>VLOOKUP(C843,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E843" s="2" t="s">
+      <c r="E843" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21424,7 +21423,7 @@
         <f>VLOOKUP(C844,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E844" s="2" t="s">
+      <c r="E844" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21442,7 +21441,7 @@
         <f>VLOOKUP(C845,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E845" s="2" t="s">
+      <c r="E845" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21460,7 +21459,7 @@
         <f>VLOOKUP(C846,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E846" s="2" t="s">
+      <c r="E846" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -21478,7 +21477,7 @@
         <f>VLOOKUP(C847,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E847" s="2" t="s">
+      <c r="E847" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21496,7 +21495,7 @@
         <f>VLOOKUP(C848,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E848" s="2" t="s">
+      <c r="E848" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21514,7 +21513,7 @@
         <f>VLOOKUP(C849,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E849" s="2" t="s">
+      <c r="E849" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -21532,7 +21531,7 @@
         <f>VLOOKUP(C850,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E850" s="2" t="s">
+      <c r="E850" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21550,7 +21549,7 @@
         <f>VLOOKUP(C851,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E851" s="2" t="s">
+      <c r="E851" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -21568,7 +21567,7 @@
         <f>VLOOKUP(C852,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E852" s="2" t="s">
+      <c r="E852" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -21586,7 +21585,7 @@
         <f>VLOOKUP(C853,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E853" s="2" t="s">
+      <c r="E853" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21604,7 +21603,7 @@
         <f>VLOOKUP(C854,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E854" s="2" t="s">
+      <c r="E854" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21622,7 +21621,7 @@
         <f>VLOOKUP(C855,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E855" s="2" t="s">
+      <c r="E855" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21640,7 +21639,7 @@
         <f>VLOOKUP(C856,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E856" s="2" t="s">
+      <c r="E856" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -21658,7 +21657,7 @@
         <f>VLOOKUP(C857,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E857" s="2" t="s">
+      <c r="E857" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21676,7 +21675,7 @@
         <f>VLOOKUP(C858,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E858" s="2" t="s">
+      <c r="E858" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21694,7 +21693,7 @@
         <f>VLOOKUP(C859,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E859" s="2" t="s">
+      <c r="E859" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21712,7 +21711,7 @@
         <f>VLOOKUP(C860,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E860" s="2" t="s">
+      <c r="E860" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -21730,7 +21729,7 @@
         <f>VLOOKUP(C861,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E861" s="2" t="s">
+      <c r="E861" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21748,7 +21747,7 @@
         <f>VLOOKUP(C862,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E862" s="2" t="s">
+      <c r="E862" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21766,7 +21765,7 @@
         <f>VLOOKUP(C863,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E863" s="2" t="s">
+      <c r="E863" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21784,7 +21783,7 @@
         <f>VLOOKUP(C864,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E864" s="2" t="s">
+      <c r="E864" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21802,7 +21801,7 @@
         <f>VLOOKUP(C865,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E865" s="2" t="s">
+      <c r="E865" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21820,7 +21819,7 @@
         <f>VLOOKUP(C866,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E866" s="2" t="s">
+      <c r="E866" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21838,7 +21837,7 @@
         <f>VLOOKUP(C867,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E867" s="2" t="s">
+      <c r="E867" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21856,7 +21855,7 @@
         <f>VLOOKUP(C868,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E868" s="2" t="s">
+      <c r="E868" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21874,7 +21873,7 @@
         <f>VLOOKUP(C869,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E869" s="2" t="s">
+      <c r="E869" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21892,7 +21891,7 @@
         <f>VLOOKUP(C870,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E870" s="2" t="s">
+      <c r="E870" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21910,7 +21909,7 @@
         <f>VLOOKUP(C871,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E871" s="2" t="s">
+      <c r="E871" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21928,7 +21927,7 @@
         <f>VLOOKUP(C872,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E872" s="2" t="s">
+      <c r="E872" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21946,7 +21945,7 @@
         <f>VLOOKUP(C873,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E873" s="2" t="s">
+      <c r="E873" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -21964,7 +21963,7 @@
         <f>VLOOKUP(C874,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E874" s="2" t="s">
+      <c r="E874" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -21982,7 +21981,7 @@
         <f>VLOOKUP(C875,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E875" s="2" t="s">
+      <c r="E875" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22000,7 +21999,7 @@
         <f>VLOOKUP(C876,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E876" s="2" t="s">
+      <c r="E876" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22018,7 +22017,7 @@
         <f>VLOOKUP(C877,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E877" s="2" t="s">
+      <c r="E877" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22036,7 +22035,7 @@
         <f>VLOOKUP(C878,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E878" s="2" t="s">
+      <c r="E878" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -22054,7 +22053,7 @@
         <f>VLOOKUP(C879,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E879" s="2" t="s">
+      <c r="E879" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22072,7 +22071,7 @@
         <f>VLOOKUP(C880,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E880" s="2" t="s">
+      <c r="E880" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22090,7 +22089,7 @@
         <f>VLOOKUP(C881,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E881" s="2" t="s">
+      <c r="E881" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -22108,7 +22107,7 @@
         <f>VLOOKUP(C882,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E882" s="2" t="s">
+      <c r="E882" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22126,7 +22125,7 @@
         <f>VLOOKUP(C883,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E883" s="2" t="s">
+      <c r="E883" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22144,7 +22143,7 @@
         <f>VLOOKUP(C884,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E884" s="2" t="s">
+      <c r="E884" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -22162,7 +22161,7 @@
         <f>VLOOKUP(C885,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E885" s="2" t="s">
+      <c r="E885" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22180,7 +22179,7 @@
         <f>VLOOKUP(C886,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E886" s="2" t="s">
+      <c r="E886" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22198,7 +22197,7 @@
         <f>VLOOKUP(C887,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E887" s="2" t="s">
+      <c r="E887" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22216,7 +22215,7 @@
         <f>VLOOKUP(C888,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E888" s="2" t="s">
+      <c r="E888" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22234,7 +22233,7 @@
         <f>VLOOKUP(C889,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E889" s="2" t="s">
+      <c r="E889" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -22252,7 +22251,7 @@
         <f>VLOOKUP(C890,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E890" s="2" t="s">
+      <c r="E890" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22270,7 +22269,7 @@
         <f>VLOOKUP(C891,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E891" s="2" t="s">
+      <c r="E891" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -22288,7 +22287,7 @@
         <f>VLOOKUP(C892,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E892" s="2" t="s">
+      <c r="E892" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -22306,7 +22305,7 @@
         <f>VLOOKUP(C893,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E893" s="2" t="s">
+      <c r="E893" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22324,7 +22323,7 @@
         <f>VLOOKUP(C894,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E894" s="2" t="s">
+      <c r="E894" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22342,7 +22341,7 @@
         <f>VLOOKUP(C895,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E895" s="2" t="s">
+      <c r="E895" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22360,7 +22359,7 @@
         <f>VLOOKUP(C896,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E896" s="2" t="s">
+      <c r="E896" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22378,7 +22377,7 @@
         <f>VLOOKUP(C897,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E897" s="2" t="s">
+      <c r="E897" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22396,7 +22395,7 @@
         <f>VLOOKUP(C898,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E898" s="2" t="s">
+      <c r="E898" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22414,7 +22413,7 @@
         <f>VLOOKUP(C899,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E899" s="2" t="s">
+      <c r="E899" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -22432,7 +22431,7 @@
         <f>VLOOKUP(C900,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E900" s="2" t="s">
+      <c r="E900" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -22450,7 +22449,7 @@
         <f>VLOOKUP(C901,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E901" s="2" t="s">
+      <c r="E901" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22468,7 +22467,7 @@
         <f>VLOOKUP(C902,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E902" s="2" t="s">
+      <c r="E902" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22486,7 +22485,7 @@
         <f>VLOOKUP(C903,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E903" s="2" t="s">
+      <c r="E903" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -22504,7 +22503,7 @@
         <f>VLOOKUP(C904,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E904" s="2" t="s">
+      <c r="E904" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -22522,7 +22521,7 @@
         <f>VLOOKUP(C905,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E905" s="2" t="s">
+      <c r="E905" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22540,7 +22539,7 @@
         <f>VLOOKUP(C906,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E906" s="2" t="s">
+      <c r="E906" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22558,7 +22557,7 @@
         <f>VLOOKUP(C907,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E907" s="2" t="s">
+      <c r="E907" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22576,7 +22575,7 @@
         <f>VLOOKUP(C908,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E908" s="2" t="s">
+      <c r="E908" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22594,7 +22593,7 @@
         <f>VLOOKUP(C909,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E909" s="2" t="s">
+      <c r="E909" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22612,7 +22611,7 @@
         <f>VLOOKUP(C910,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E910" s="2" t="s">
+      <c r="E910" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22630,7 +22629,7 @@
         <f>VLOOKUP(C911,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E911" s="2" t="s">
+      <c r="E911" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22648,7 +22647,7 @@
         <f>VLOOKUP(C912,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E912" s="2" t="s">
+      <c r="E912" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22666,7 +22665,7 @@
         <f>VLOOKUP(C913,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E913" s="2" t="s">
+      <c r="E913" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22684,7 +22683,7 @@
         <f>VLOOKUP(C914,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E914" s="2" t="s">
+      <c r="E914" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22702,7 +22701,7 @@
         <f>VLOOKUP(C915,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E915" s="2" t="s">
+      <c r="E915" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22720,7 +22719,7 @@
         <f>VLOOKUP(C916,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E916" s="2" t="s">
+      <c r="E916" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22738,7 +22737,7 @@
         <f>VLOOKUP(C917,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E917" s="2" t="s">
+      <c r="E917" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22756,7 +22755,7 @@
         <f>VLOOKUP(C918,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E918" s="2" t="s">
+      <c r="E918" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22774,7 +22773,7 @@
         <f>VLOOKUP(C919,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E919" s="2" t="s">
+      <c r="E919" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22792,7 +22791,7 @@
         <f>VLOOKUP(C920,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E920" s="2" t="s">
+      <c r="E920" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22810,7 +22809,7 @@
         <f>VLOOKUP(C921,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E921" s="2" t="s">
+      <c r="E921" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22828,7 +22827,7 @@
         <f>VLOOKUP(C922,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E922" s="2" t="s">
+      <c r="E922" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22846,7 +22845,7 @@
         <f>VLOOKUP(C923,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E923" s="2" t="s">
+      <c r="E923" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22864,7 +22863,7 @@
         <f>VLOOKUP(C924,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E924" s="2" t="s">
+      <c r="E924" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -22882,7 +22881,7 @@
         <f>VLOOKUP(C925,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E925" s="2" t="s">
+      <c r="E925" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -22900,7 +22899,7 @@
         <f>VLOOKUP(C926,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E926" s="2" t="s">
+      <c r="E926" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22918,7 +22917,7 @@
         <f>VLOOKUP(C927,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E927" s="2" t="s">
+      <c r="E927" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -22936,7 +22935,7 @@
         <f>VLOOKUP(C928,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E928" s="2" t="s">
+      <c r="E928" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22954,7 +22953,7 @@
         <f>VLOOKUP(C929,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E929" s="2" t="s">
+      <c r="E929" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22972,7 +22971,7 @@
         <f>VLOOKUP(C930,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E930" s="2" t="s">
+      <c r="E930" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -22990,7 +22989,7 @@
         <f>VLOOKUP(C931,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E931" s="2" t="s">
+      <c r="E931" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -23008,7 +23007,7 @@
         <f>VLOOKUP(C932,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E932" s="2" t="s">
+      <c r="E932" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -23026,7 +23025,7 @@
         <f>VLOOKUP(C933,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E933" s="2" t="s">
+      <c r="E933" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -23044,7 +23043,7 @@
         <f>VLOOKUP(C934,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E934" s="2" t="s">
+      <c r="E934" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -23062,7 +23061,7 @@
         <f>VLOOKUP(C935,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E935" s="2" t="s">
+      <c r="E935" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -23080,7 +23079,7 @@
         <f>VLOOKUP(C936,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E936" s="2" t="s">
+      <c r="E936" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -23098,7 +23097,7 @@
         <f>VLOOKUP(C937,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E937" s="2" t="s">
+      <c r="E937" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -23116,7 +23115,7 @@
         <f>VLOOKUP(C938,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E938" s="2" t="s">
+      <c r="E938" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -23134,7 +23133,7 @@
         <f>VLOOKUP(C939,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E939" s="2" t="s">
+      <c r="E939" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -23152,7 +23151,7 @@
         <f>VLOOKUP(C940,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E940" s="2" t="s">
+      <c r="E940" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -23170,7 +23169,7 @@
         <f>VLOOKUP(C941,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Girona</v>
       </c>
-      <c r="E941" s="2" t="s">
+      <c r="E941" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -23188,7 +23187,7 @@
         <f>VLOOKUP(C942,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E942" s="2" t="s">
+      <c r="E942" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -23206,7 +23205,7 @@
         <f>VLOOKUP(C943,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E943" s="2" t="s">
+      <c r="E943" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -23224,7 +23223,7 @@
         <f>VLOOKUP(C944,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Lleida</v>
       </c>
-      <c r="E944" s="2" t="s">
+      <c r="E944" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -23242,7 +23241,7 @@
         <f>VLOOKUP(C945,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E945" s="2" t="s">
+      <c r="E945" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -23260,7 +23259,7 @@
         <f>VLOOKUP(C946,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E946" s="2" t="s">
+      <c r="E946" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -23278,7 +23277,7 @@
         <f>VLOOKUP(C947,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Barcelona</v>
       </c>
-      <c r="E947" s="2" t="s">
+      <c r="E947" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -23296,7 +23295,7 @@
         <f>VLOOKUP(C948,provincies!$A$1:$C$43,3,FALSE)</f>
         <v>Tarragona</v>
       </c>
-      <c r="E948" s="2" t="s">
+      <c r="E948" t="s">
         <v>1943</v>
       </c>
     </row>
